--- a/datamining/final_data/sum2020.xlsx
+++ b/datamining/final_data/sum2020.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FFG2"/>
+  <dimension ref="A1:FFH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18467,3060 +18467,3065 @@
       </c>
       <c r="EHT1" s="1" t="inlineStr">
         <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="EHU1" s="1" t="inlineStr">
+        <is>
           <t>기준점</t>
         </is>
       </c>
-      <c r="EHU1" s="1" t="inlineStr">
+      <c r="EHV1" s="1" t="inlineStr">
         <is>
           <t>상회</t>
         </is>
       </c>
-      <c r="EHV1" s="1" t="inlineStr">
+      <c r="EHW1" s="1" t="inlineStr">
         <is>
           <t>트렌드</t>
         </is>
       </c>
-      <c r="EHW1" s="1" t="inlineStr">
+      <c r="EHX1" s="1" t="inlineStr">
         <is>
           <t>하회</t>
         </is>
       </c>
-      <c r="EHX1" s="1" t="inlineStr">
+      <c r="EHY1" s="1" t="inlineStr">
         <is>
           <t>합의도</t>
         </is>
       </c>
-      <c r="EHY1" s="1" t="inlineStr">
+      <c r="EHZ1" s="1" t="inlineStr">
         <is>
           <t>합의</t>
         </is>
       </c>
-      <c r="EHZ1" s="1" t="inlineStr">
+      <c r="EIA1" s="1" t="inlineStr">
         <is>
           <t>분석후</t>
         </is>
       </c>
-      <c r="EIA1" s="1" t="inlineStr">
+      <c r="EIB1" s="1" t="inlineStr">
         <is>
           <t>처우</t>
         </is>
       </c>
-      <c r="EIB1" s="1" t="inlineStr">
+      <c r="EIC1" s="1" t="inlineStr">
         <is>
           <t>형태소</t>
         </is>
       </c>
-      <c r="EIC1" s="1" t="inlineStr">
+      <c r="EID1" s="1" t="inlineStr">
         <is>
           <t>인포메이션</t>
         </is>
       </c>
-      <c r="EID1" s="1" t="inlineStr">
+      <c r="EIE1" s="1" t="inlineStr">
         <is>
           <t>박사</t>
         </is>
       </c>
-      <c r="EIE1" s="1" t="inlineStr">
+      <c r="EIF1" s="1" t="inlineStr">
         <is>
           <t>빈도수</t>
         </is>
       </c>
-      <c r="EIF1" s="1" t="inlineStr">
+      <c r="EIG1" s="1" t="inlineStr">
         <is>
           <t>거론</t>
         </is>
       </c>
-      <c r="EIG1" s="1" t="inlineStr">
+      <c r="EIH1" s="1" t="inlineStr">
         <is>
           <t>상정</t>
         </is>
       </c>
-      <c r="EIH1" s="1" t="inlineStr">
+      <c r="EII1" s="1" t="inlineStr">
         <is>
           <t>예측변인</t>
         </is>
       </c>
-      <c r="EII1" s="1" t="inlineStr">
+      <c r="EIJ1" s="1" t="inlineStr">
         <is>
           <t>참가자</t>
         </is>
       </c>
-      <c r="EIJ1" s="1" t="inlineStr">
+      <c r="EIK1" s="1" t="inlineStr">
         <is>
           <t>우수자</t>
         </is>
       </c>
-      <c r="EIK1" s="1" t="inlineStr">
+      <c r="EIL1" s="1" t="inlineStr">
         <is>
           <t>입시</t>
         </is>
       </c>
-      <c r="EIL1" s="1" t="inlineStr">
+      <c r="EIM1" s="1" t="inlineStr">
         <is>
           <t>입학생</t>
         </is>
       </c>
-      <c r="EIM1" s="1" t="inlineStr">
+      <c r="EIN1" s="1" t="inlineStr">
         <is>
           <t>정시</t>
         </is>
       </c>
-      <c r="EIN1" s="1" t="inlineStr">
+      <c r="EIO1" s="1" t="inlineStr">
         <is>
           <t>충성도</t>
         </is>
       </c>
-      <c r="EIO1" s="1" t="inlineStr">
+      <c r="EIP1" s="1" t="inlineStr">
         <is>
           <t>학과</t>
         </is>
       </c>
-      <c r="EIP1" s="1" t="inlineStr">
+      <c r="EIQ1" s="1" t="inlineStr">
         <is>
           <t>서보드</t>
         </is>
       </c>
-      <c r="EIQ1" s="1" t="inlineStr">
+      <c r="EIR1" s="1" t="inlineStr">
         <is>
           <t>완성도</t>
         </is>
       </c>
-      <c r="EIR1" s="1" t="inlineStr">
+      <c r="EIS1" s="1" t="inlineStr">
         <is>
           <t>renzulli</t>
         </is>
       </c>
-      <c r="EIS1" s="1" t="inlineStr">
+      <c r="EIT1" s="1" t="inlineStr">
         <is>
           <t>사안</t>
         </is>
       </c>
-      <c r="EIT1" s="1" t="inlineStr">
+      <c r="EIU1" s="1" t="inlineStr">
         <is>
           <t>줄리</t>
         </is>
       </c>
-      <c r="EIU1" s="1" t="inlineStr">
+      <c r="EIV1" s="1" t="inlineStr">
         <is>
           <t>초등정보</t>
         </is>
       </c>
-      <c r="EIV1" s="1" t="inlineStr">
+      <c r="EIW1" s="1" t="inlineStr">
         <is>
           <t>숙제</t>
         </is>
       </c>
-      <c r="EIW1" s="1" t="inlineStr">
+      <c r="EIX1" s="1" t="inlineStr">
         <is>
           <t>과학쇼</t>
         </is>
       </c>
-      <c r="EIX1" s="1" t="inlineStr">
+      <c r="EIY1" s="1" t="inlineStr">
         <is>
           <t>마술</t>
         </is>
       </c>
-      <c r="EIY1" s="1" t="inlineStr">
+      <c r="EIZ1" s="1" t="inlineStr">
         <is>
           <t>오렌지</t>
         </is>
       </c>
-      <c r="EIZ1" s="1" t="inlineStr">
+      <c r="EJA1" s="1" t="inlineStr">
         <is>
           <t>패리티비트</t>
         </is>
       </c>
-      <c r="EJA1" s="1" t="inlineStr">
+      <c r="EJB1" s="1" t="inlineStr">
         <is>
           <t>자기장</t>
         </is>
       </c>
-      <c r="EJB1" s="1" t="inlineStr">
+      <c r="EJC1" s="1" t="inlineStr">
         <is>
           <t>자석</t>
         </is>
       </c>
-      <c r="EJC1" s="1" t="inlineStr">
+      <c r="EJD1" s="1" t="inlineStr">
         <is>
           <t>멘토</t>
         </is>
       </c>
-      <c r="EJD1" s="1" t="inlineStr">
+      <c r="EJE1" s="1" t="inlineStr">
         <is>
           <t>에듀</t>
         </is>
       </c>
-      <c r="EJE1" s="1" t="inlineStr">
+      <c r="EJF1" s="1" t="inlineStr">
         <is>
           <t>에듀톤</t>
         </is>
       </c>
-      <c r="EJF1" s="1" t="inlineStr">
+      <c r="EJG1" s="1" t="inlineStr">
         <is>
           <t>예선</t>
         </is>
       </c>
-      <c r="EJG1" s="1" t="inlineStr">
+      <c r="EJH1" s="1" t="inlineStr">
         <is>
           <t>일지</t>
         </is>
       </c>
-      <c r="EJH1" s="1" t="inlineStr">
+      <c r="EJI1" s="1" t="inlineStr">
         <is>
           <t>rossett</t>
         </is>
       </c>
-      <c r="EJI1" s="1" t="inlineStr">
+      <c r="EJJ1" s="1" t="inlineStr">
         <is>
           <t>건물</t>
         </is>
       </c>
-      <c r="EJJ1" s="1" t="inlineStr">
+      <c r="EJK1" s="1" t="inlineStr">
         <is>
           <t>공변인</t>
         </is>
       </c>
-      <c r="EJK1" s="1" t="inlineStr">
+      <c r="EJL1" s="1" t="inlineStr">
         <is>
           <t>삼각비</t>
         </is>
       </c>
-      <c r="EJL1" s="1" t="inlineStr">
+      <c r="EJM1" s="1" t="inlineStr">
         <is>
           <t>포트리스</t>
         </is>
       </c>
-      <c r="EJM1" s="1" t="inlineStr">
+      <c r="EJN1" s="1" t="inlineStr">
         <is>
           <t>다집단</t>
         </is>
       </c>
-      <c r="EJN1" s="1" t="inlineStr">
+      <c r="EJO1" s="1" t="inlineStr">
         <is>
           <t>서울교육종단</t>
         </is>
       </c>
-      <c r="EJO1" s="1" t="inlineStr">
+      <c r="EJP1" s="1" t="inlineStr">
         <is>
           <t>여가용</t>
         </is>
       </c>
-      <c r="EJP1" s="1" t="inlineStr">
+      <c r="EJQ1" s="1" t="inlineStr">
         <is>
           <t>자기주도학습</t>
         </is>
       </c>
-      <c r="EJQ1" s="1" t="inlineStr">
+      <c r="EJR1" s="1" t="inlineStr">
         <is>
           <t>종단연구</t>
         </is>
       </c>
-      <c r="EJR1" s="1" t="inlineStr">
+      <c r="EJS1" s="1" t="inlineStr">
         <is>
           <t>차년</t>
         </is>
       </c>
-      <c r="EJS1" s="1" t="inlineStr">
+      <c r="EJT1" s="1" t="inlineStr">
         <is>
           <t>dependencies</t>
         </is>
       </c>
-      <c r="EJT1" s="1" t="inlineStr">
+      <c r="EJU1" s="1" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="EJU1" s="1" t="inlineStr">
+      <c r="EJV1" s="1" t="inlineStr">
         <is>
           <t>network</t>
         </is>
       </c>
-      <c r="EJV1" s="1" t="inlineStr">
+      <c r="EJW1" s="1" t="inlineStr">
         <is>
           <t>neural</t>
         </is>
       </c>
-      <c r="EJW1" s="1" t="inlineStr">
+      <c r="EJX1" s="1" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="EJX1" s="1" t="inlineStr">
+      <c r="EJY1" s="1" t="inlineStr">
         <is>
           <t>recurrent</t>
         </is>
       </c>
-      <c r="EJY1" s="1" t="inlineStr">
+      <c r="EJZ1" s="1" t="inlineStr">
         <is>
           <t>subword</t>
         </is>
       </c>
-      <c r="EJZ1" s="1" t="inlineStr">
+      <c r="EKA1" s="1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
       </c>
-      <c r="EKA1" s="1" t="inlineStr">
+      <c r="EKB1" s="1" t="inlineStr">
         <is>
           <t>검사기</t>
         </is>
       </c>
-      <c r="EKB1" s="1" t="inlineStr">
+      <c r="EKC1" s="1" t="inlineStr">
         <is>
           <t>단일어</t>
         </is>
       </c>
-      <c r="EKC1" s="1" t="inlineStr">
+      <c r="EKD1" s="1" t="inlineStr">
         <is>
           <t>맞춤법</t>
         </is>
       </c>
-      <c r="EKD1" s="1" t="inlineStr">
+      <c r="EKE1" s="1" t="inlineStr">
         <is>
           <t>코퍼스</t>
         </is>
       </c>
-      <c r="EKE1" s="1" t="inlineStr">
+      <c r="EKF1" s="1" t="inlineStr">
         <is>
           <t>희소</t>
         </is>
       </c>
-      <c r="EKF1" s="1" t="inlineStr">
+      <c r="EKG1" s="1" t="inlineStr">
         <is>
           <t>브랜드</t>
         </is>
       </c>
-      <c r="EKG1" s="1" t="inlineStr">
+      <c r="EKH1" s="1" t="inlineStr">
         <is>
           <t>자국</t>
         </is>
       </c>
-      <c r="EKH1" s="1" t="inlineStr">
+      <c r="EKI1" s="1" t="inlineStr">
         <is>
           <t>장학사</t>
         </is>
       </c>
-      <c r="EKI1" s="1" t="inlineStr">
+      <c r="EKJ1" s="1" t="inlineStr">
         <is>
           <t>주년</t>
         </is>
       </c>
-      <c r="EKJ1" s="1" t="inlineStr">
+      <c r="EKK1" s="1" t="inlineStr">
         <is>
           <t>주무관</t>
         </is>
       </c>
-      <c r="EKK1" s="1" t="inlineStr">
+      <c r="EKL1" s="1" t="inlineStr">
         <is>
           <t>초청</t>
         </is>
       </c>
-      <c r="EKL1" s="1" t="inlineStr">
+      <c r="EKM1" s="1" t="inlineStr">
         <is>
           <t>협력국</t>
         </is>
       </c>
-      <c r="EKM1" s="1" t="inlineStr">
+      <c r="EKN1" s="1" t="inlineStr">
         <is>
           <t>개국</t>
         </is>
       </c>
-      <c r="EKN1" s="1" t="inlineStr">
+      <c r="EKO1" s="1" t="inlineStr">
         <is>
           <t>선형</t>
         </is>
       </c>
-      <c r="EKO1" s="1" t="inlineStr">
+      <c r="EKP1" s="1" t="inlineStr">
         <is>
           <t>소용돌이</t>
         </is>
       </c>
-      <c r="EKP1" s="1" t="inlineStr">
+      <c r="EKQ1" s="1" t="inlineStr">
         <is>
           <t>예외</t>
         </is>
       </c>
-      <c r="EKQ1" s="1" t="inlineStr">
+      <c r="EKR1" s="1" t="inlineStr">
         <is>
           <t>주역</t>
         </is>
       </c>
-      <c r="EKR1" s="1" t="inlineStr">
+      <c r="EKS1" s="1" t="inlineStr">
         <is>
           <t>torrance</t>
         </is>
       </c>
-      <c r="EKS1" s="1" t="inlineStr">
+      <c r="EKT1" s="1" t="inlineStr">
         <is>
           <t>제주</t>
         </is>
       </c>
-      <c r="EKT1" s="1" t="inlineStr">
+      <c r="EKU1" s="1" t="inlineStr">
         <is>
           <t>컴퓨터교육</t>
         </is>
       </c>
-      <c r="EKU1" s="1" t="inlineStr">
+      <c r="EKV1" s="1" t="inlineStr">
         <is>
           <t>다년</t>
         </is>
       </c>
-      <c r="EKV1" s="1" t="inlineStr">
+      <c r="EKW1" s="1" t="inlineStr">
         <is>
           <t>디자</t>
         </is>
       </c>
-      <c r="EKW1" s="1" t="inlineStr">
+      <c r="EKX1" s="1" t="inlineStr">
         <is>
           <t>발상</t>
         </is>
       </c>
-      <c r="EKX1" s="1" t="inlineStr">
+      <c r="EKY1" s="1" t="inlineStr">
         <is>
           <t>코스</t>
         </is>
       </c>
-      <c r="EKY1" s="1" t="inlineStr">
+      <c r="EKZ1" s="1" t="inlineStr">
         <is>
           <t>사물인터넷</t>
         </is>
       </c>
-      <c r="EKZ1" s="1" t="inlineStr">
+      <c r="ELA1" s="1" t="inlineStr">
         <is>
           <t>윷놀이</t>
         </is>
       </c>
-      <c r="ELA1" s="1" t="inlineStr">
+      <c r="ELB1" s="1" t="inlineStr">
         <is>
           <t>획기적</t>
         </is>
       </c>
-      <c r="ELB1" s="1" t="inlineStr">
+      <c r="ELC1" s="1" t="inlineStr">
         <is>
           <t>중다회</t>
         </is>
       </c>
-      <c r="ELC1" s="1" t="inlineStr">
+      <c r="ELD1" s="1" t="inlineStr">
         <is>
           <t>tests</t>
         </is>
       </c>
-      <c r="ELD1" s="1" t="inlineStr">
+      <c r="ELE1" s="1" t="inlineStr">
         <is>
           <t>경제혁신센터</t>
         </is>
       </c>
-      <c r="ELE1" s="1" t="inlineStr">
+      <c r="ELF1" s="1" t="inlineStr">
         <is>
           <t>청년</t>
         </is>
       </c>
-      <c r="ELF1" s="1" t="inlineStr">
+      <c r="ELG1" s="1" t="inlineStr">
         <is>
           <t>관통</t>
         </is>
       </c>
-      <c r="ELG1" s="1" t="inlineStr">
+      <c r="ELH1" s="1" t="inlineStr">
         <is>
           <t>재정의</t>
         </is>
       </c>
-      <c r="ELH1" s="1" t="inlineStr">
+      <c r="ELI1" s="1" t="inlineStr">
         <is>
           <t>합성식</t>
         </is>
       </c>
-      <c r="ELI1" s="1" t="inlineStr">
+      <c r="ELJ1" s="1" t="inlineStr">
         <is>
           <t>공분산</t>
         </is>
       </c>
-      <c r="ELJ1" s="1" t="inlineStr">
+      <c r="ELK1" s="1" t="inlineStr">
         <is>
           <t>햄스터</t>
         </is>
       </c>
-      <c r="ELK1" s="1" t="inlineStr">
+      <c r="ELL1" s="1" t="inlineStr">
         <is>
           <t>미침</t>
         </is>
       </c>
-      <c r="ELL1" s="1" t="inlineStr">
+      <c r="ELM1" s="1" t="inlineStr">
         <is>
           <t>cad</t>
         </is>
       </c>
-      <c r="ELM1" s="1" t="inlineStr">
+      <c r="ELN1" s="1" t="inlineStr">
         <is>
           <t>거시</t>
         </is>
       </c>
-      <c r="ELN1" s="1" t="inlineStr">
+      <c r="ELO1" s="1" t="inlineStr">
         <is>
           <t>메이커</t>
         </is>
       </c>
-      <c r="ELO1" s="1" t="inlineStr">
+      <c r="ELP1" s="1" t="inlineStr">
         <is>
           <t>부피</t>
         </is>
       </c>
-      <c r="ELP1" s="1" t="inlineStr">
+      <c r="ELQ1" s="1" t="inlineStr">
         <is>
           <t>스페이스</t>
         </is>
       </c>
-      <c r="ELQ1" s="1" t="inlineStr">
+      <c r="ELR1" s="1" t="inlineStr">
         <is>
           <t>연계주의</t>
         </is>
       </c>
-      <c r="ELR1" s="1" t="inlineStr">
+      <c r="ELS1" s="1" t="inlineStr">
         <is>
           <t>재현</t>
         </is>
       </c>
-      <c r="ELS1" s="1" t="inlineStr">
+      <c r="ELT1" s="1" t="inlineStr">
         <is>
           <t>증명</t>
         </is>
       </c>
-      <c r="ELT1" s="1" t="inlineStr">
+      <c r="ELU1" s="1" t="inlineStr">
         <is>
           <t>학습내용</t>
         </is>
       </c>
-      <c r="ELU1" s="1" t="inlineStr">
+      <c r="ELV1" s="1" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
       </c>
-      <c r="ELV1" s="1" t="inlineStr">
+      <c r="ELW1" s="1" t="inlineStr">
         <is>
           <t>hlm</t>
         </is>
       </c>
-      <c r="ELW1" s="1" t="inlineStr">
+      <c r="ELX1" s="1" t="inlineStr">
         <is>
           <t>international</t>
         </is>
       </c>
-      <c r="ELX1" s="1" t="inlineStr">
+      <c r="ELY1" s="1" t="inlineStr">
         <is>
           <t>programme</t>
         </is>
       </c>
-      <c r="ELY1" s="1" t="inlineStr">
+      <c r="ELZ1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="ELZ1" s="1" t="inlineStr">
+      <c r="EMA1" s="1" t="inlineStr">
         <is>
           <t>다층</t>
         </is>
       </c>
-      <c r="EMA1" s="1" t="inlineStr">
+      <c r="EMB1" s="1" t="inlineStr">
         <is>
           <t>선형모</t>
         </is>
       </c>
-      <c r="EMB1" s="1" t="inlineStr">
+      <c r="EMC1" s="1" t="inlineStr">
         <is>
           <t>그전</t>
         </is>
       </c>
-      <c r="EMC1" s="1" t="inlineStr">
+      <c r="EMD1" s="1" t="inlineStr">
         <is>
           <t>자의식</t>
         </is>
       </c>
-      <c r="EMD1" s="1" t="inlineStr">
+      <c r="EME1" s="1" t="inlineStr">
         <is>
           <t>딥러닝</t>
         </is>
       </c>
-      <c r="EME1" s="1" t="inlineStr">
+      <c r="EMF1" s="1" t="inlineStr">
         <is>
           <t>학습흥미</t>
         </is>
       </c>
-      <c r="EMF1" s="1" t="inlineStr">
+      <c r="EMG1" s="1" t="inlineStr">
         <is>
           <t>인지력</t>
         </is>
       </c>
-      <c r="EMG1" s="1" t="inlineStr">
+      <c r="EMH1" s="1" t="inlineStr">
         <is>
           <t>현시대</t>
         </is>
       </c>
-      <c r="EMH1" s="1" t="inlineStr">
+      <c r="EMI1" s="1" t="inlineStr">
         <is>
           <t>소득계층</t>
         </is>
       </c>
-      <c r="EMI1" s="1" t="inlineStr">
+      <c r="EMJ1" s="1" t="inlineStr">
         <is>
           <t>읍면</t>
         </is>
       </c>
-      <c r="EMJ1" s="1" t="inlineStr">
+      <c r="EMK1" s="1" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
-      <c r="EMK1" s="1" t="inlineStr">
+      <c r="EML1" s="1" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="EML1" s="1" t="inlineStr">
+      <c r="EMM1" s="1" t="inlineStr">
         <is>
           <t>hvc</t>
         </is>
       </c>
-      <c r="EMM1" s="1" t="inlineStr">
+      <c r="EMN1" s="1" t="inlineStr">
         <is>
           <t>vr</t>
         </is>
       </c>
-      <c r="EMN1" s="1" t="inlineStr">
+      <c r="EMO1" s="1" t="inlineStr">
         <is>
           <t>성숙도</t>
         </is>
       </c>
-      <c r="EMO1" s="1" t="inlineStr">
+      <c r="EMP1" s="1" t="inlineStr">
         <is>
           <t>저해</t>
         </is>
       </c>
-      <c r="EMP1" s="1" t="inlineStr">
+      <c r="EMQ1" s="1" t="inlineStr">
         <is>
           <t>촉진요인</t>
         </is>
       </c>
-      <c r="EMQ1" s="1" t="inlineStr">
+      <c r="EMR1" s="1" t="inlineStr">
         <is>
           <t>객체지향</t>
         </is>
       </c>
-      <c r="EMR1" s="1" t="inlineStr">
+      <c r="EMS1" s="1" t="inlineStr">
         <is>
           <t>교과과정</t>
         </is>
       </c>
-      <c r="EMS1" s="1" t="inlineStr">
+      <c r="EMT1" s="1" t="inlineStr">
         <is>
           <t>기억</t>
         </is>
       </c>
-      <c r="EMT1" s="1" t="inlineStr">
+      <c r="EMU1" s="1" t="inlineStr">
         <is>
           <t>편입</t>
         </is>
       </c>
-      <c r="EMU1" s="1" t="inlineStr">
+      <c r="EMV1" s="1" t="inlineStr">
         <is>
           <t>교훈</t>
         </is>
       </c>
-      <c r="EMV1" s="1" t="inlineStr">
+      <c r="EMW1" s="1" t="inlineStr">
         <is>
           <t>검사결과</t>
         </is>
       </c>
-      <c r="EMW1" s="1" t="inlineStr">
+      <c r="EMX1" s="1" t="inlineStr">
         <is>
           <t>우려성</t>
         </is>
       </c>
-      <c r="EMX1" s="1" t="inlineStr">
+      <c r="EMY1" s="1" t="inlineStr">
         <is>
           <t>교과내용</t>
         </is>
       </c>
-      <c r="EMY1" s="1" t="inlineStr">
+      <c r="EMZ1" s="1" t="inlineStr">
         <is>
           <t>영어교</t>
         </is>
       </c>
-      <c r="EMZ1" s="1" t="inlineStr">
+      <c r="ENA1" s="1" t="inlineStr">
         <is>
           <t>유사점</t>
         </is>
       </c>
-      <c r="ENA1" s="1" t="inlineStr">
+      <c r="ENB1" s="1" t="inlineStr">
         <is>
           <t>포용</t>
         </is>
       </c>
-      <c r="ENB1" s="1" t="inlineStr">
+      <c r="ENC1" s="1" t="inlineStr">
         <is>
           <t>kaie</t>
         </is>
       </c>
-      <c r="ENC1" s="1" t="inlineStr">
+      <c r="END1" s="1" t="inlineStr">
         <is>
           <t>예절</t>
         </is>
       </c>
-      <c r="END1" s="1" t="inlineStr">
+      <c r="ENE1" s="1" t="inlineStr">
         <is>
           <t>차기</t>
         </is>
       </c>
-      <c r="ENE1" s="1" t="inlineStr">
+      <c r="ENF1" s="1" t="inlineStr">
         <is>
           <t>시간이상</t>
         </is>
       </c>
-      <c r="ENF1" s="1" t="inlineStr">
+      <c r="ENG1" s="1" t="inlineStr">
         <is>
           <t>계획서</t>
         </is>
       </c>
-      <c r="ENG1" s="1" t="inlineStr">
+      <c r="ENH1" s="1" t="inlineStr">
         <is>
           <t>구조화</t>
         </is>
       </c>
-      <c r="ENH1" s="1" t="inlineStr">
+      <c r="ENI1" s="1" t="inlineStr">
         <is>
           <t>학점</t>
         </is>
       </c>
-      <c r="ENI1" s="1" t="inlineStr">
+      <c r="ENJ1" s="1" t="inlineStr">
         <is>
           <t>nielsen</t>
         </is>
       </c>
-      <c r="ENJ1" s="1" t="inlineStr">
+      <c r="ENK1" s="1" t="inlineStr">
         <is>
           <t>관계자</t>
         </is>
       </c>
-      <c r="ENK1" s="1" t="inlineStr">
+      <c r="ENL1" s="1" t="inlineStr">
         <is>
           <t>중생</t>
         </is>
       </c>
-      <c r="ENL1" s="1" t="inlineStr">
+      <c r="ENM1" s="1" t="inlineStr">
         <is>
           <t>증거</t>
         </is>
       </c>
-      <c r="ENM1" s="1" t="inlineStr">
+      <c r="ENN1" s="1" t="inlineStr">
         <is>
           <t>진단평가</t>
         </is>
       </c>
-      <c r="ENN1" s="1" t="inlineStr">
+      <c r="ENO1" s="1" t="inlineStr">
         <is>
           <t>평가시스템</t>
         </is>
       </c>
-      <c r="ENO1" s="1" t="inlineStr">
+      <c r="ENP1" s="1" t="inlineStr">
         <is>
           <t>휴리스틱스</t>
         </is>
       </c>
-      <c r="ENP1" s="1" t="inlineStr">
+      <c r="ENQ1" s="1" t="inlineStr">
         <is>
           <t>해결수월</t>
         </is>
       </c>
-      <c r="ENQ1" s="1" t="inlineStr">
+      <c r="ENR1" s="1" t="inlineStr">
         <is>
           <t>기획서</t>
         </is>
       </c>
-      <c r="ENR1" s="1" t="inlineStr">
+      <c r="ENS1" s="1" t="inlineStr">
         <is>
           <t>성찰지</t>
         </is>
       </c>
-      <c r="ENS1" s="1" t="inlineStr">
+      <c r="ENT1" s="1" t="inlineStr">
         <is>
           <t>테이블</t>
         </is>
       </c>
-      <c r="ENT1" s="1" t="inlineStr">
+      <c r="ENU1" s="1" t="inlineStr">
         <is>
           <t>팀간</t>
         </is>
       </c>
-      <c r="ENU1" s="1" t="inlineStr">
+      <c r="ENV1" s="1" t="inlineStr">
         <is>
           <t>프로슈머</t>
         </is>
       </c>
-      <c r="ENV1" s="1" t="inlineStr">
+      <c r="ENW1" s="1" t="inlineStr">
         <is>
           <t>dr</t>
         </is>
       </c>
-      <c r="ENW1" s="1" t="inlineStr">
+      <c r="ENX1" s="1" t="inlineStr">
         <is>
           <t>비버챌린지</t>
         </is>
       </c>
-      <c r="ENX1" s="1" t="inlineStr">
+      <c r="ENY1" s="1" t="inlineStr">
         <is>
           <t>전공자</t>
         </is>
       </c>
-      <c r="ENY1" s="1" t="inlineStr">
+      <c r="ENZ1" s="1" t="inlineStr">
         <is>
           <t>최적화</t>
         </is>
       </c>
-      <c r="ENZ1" s="1" t="inlineStr">
+      <c r="EOA1" s="1" t="inlineStr">
         <is>
           <t>카운팅</t>
         </is>
       </c>
-      <c r="EOA1" s="1" t="inlineStr">
+      <c r="EOB1" s="1" t="inlineStr">
         <is>
           <t>파워</t>
         </is>
       </c>
-      <c r="EOB1" s="1" t="inlineStr">
+      <c r="EOC1" s="1" t="inlineStr">
         <is>
           <t>ddd</t>
         </is>
       </c>
-      <c r="EOC1" s="1" t="inlineStr">
+      <c r="EOD1" s="1" t="inlineStr">
         <is>
           <t>development</t>
         </is>
       </c>
-      <c r="EOD1" s="1" t="inlineStr">
+      <c r="EOE1" s="1" t="inlineStr">
         <is>
           <t>discovery</t>
         </is>
       </c>
-      <c r="EOE1" s="1" t="inlineStr">
+      <c r="EOF1" s="1" t="inlineStr">
         <is>
           <t>동작인식</t>
         </is>
       </c>
-      <c r="EOF1" s="1" t="inlineStr">
+      <c r="EOG1" s="1" t="inlineStr">
         <is>
           <t>도입부</t>
         </is>
       </c>
-      <c r="EOG1" s="1" t="inlineStr">
+      <c r="EOH1" s="1" t="inlineStr">
         <is>
           <t>해밍</t>
         </is>
       </c>
-      <c r="EOH1" s="1" t="inlineStr">
+      <c r="EOI1" s="1" t="inlineStr">
         <is>
           <t>humhub</t>
         </is>
       </c>
-      <c r="EOI1" s="1" t="inlineStr">
+      <c r="EOJ1" s="1" t="inlineStr">
         <is>
           <t>심체</t>
         </is>
       </c>
-      <c r="EOJ1" s="1" t="inlineStr">
+      <c r="EOK1" s="1" t="inlineStr">
         <is>
           <t>여성교사</t>
         </is>
       </c>
-      <c r="EOK1" s="1" t="inlineStr">
+      <c r="EOL1" s="1" t="inlineStr">
         <is>
           <t>놀이터</t>
         </is>
       </c>
-      <c r="EOL1" s="1" t="inlineStr">
+      <c r="EOM1" s="1" t="inlineStr">
         <is>
           <t>동센터</t>
         </is>
       </c>
-      <c r="EOM1" s="1" t="inlineStr">
+      <c r="EON1" s="1" t="inlineStr">
         <is>
           <t>가족</t>
         </is>
       </c>
-      <c r="EON1" s="1" t="inlineStr">
+      <c r="EOO1" s="1" t="inlineStr">
         <is>
           <t>관계망</t>
         </is>
       </c>
-      <c r="EOO1" s="1" t="inlineStr">
+      <c r="EOP1" s="1" t="inlineStr">
         <is>
           <t>친밀도</t>
         </is>
       </c>
-      <c r="EOP1" s="1" t="inlineStr">
+      <c r="EOQ1" s="1" t="inlineStr">
         <is>
           <t>친척</t>
         </is>
       </c>
-      <c r="EOQ1" s="1" t="inlineStr">
+      <c r="EOR1" s="1" t="inlineStr">
         <is>
           <t>혈연</t>
         </is>
       </c>
-      <c r="EOR1" s="1" t="inlineStr">
+      <c r="EOS1" s="1" t="inlineStr">
         <is>
           <t>혼자</t>
         </is>
       </c>
-      <c r="EOS1" s="1" t="inlineStr">
+      <c r="EOT1" s="1" t="inlineStr">
         <is>
           <t>riss</t>
         </is>
       </c>
-      <c r="EOT1" s="1" t="inlineStr">
+      <c r="EOU1" s="1" t="inlineStr">
         <is>
           <t>기각</t>
         </is>
       </c>
-      <c r="EOU1" s="1" t="inlineStr">
+      <c r="EOV1" s="1" t="inlineStr">
         <is>
           <t>지속의도</t>
         </is>
       </c>
-      <c r="EOV1" s="1" t="inlineStr">
+      <c r="EOW1" s="1" t="inlineStr">
         <is>
           <t>배정</t>
         </is>
       </c>
-      <c r="EOW1" s="1" t="inlineStr">
+      <c r="EOX1" s="1" t="inlineStr">
         <is>
           <t>전공계열</t>
         </is>
       </c>
-      <c r="EOX1" s="1" t="inlineStr">
+      <c r="EOY1" s="1" t="inlineStr">
         <is>
           <t>개년</t>
         </is>
       </c>
-      <c r="EOY1" s="1" t="inlineStr">
+      <c r="EOZ1" s="1" t="inlineStr">
         <is>
           <t>물적</t>
         </is>
       </c>
-      <c r="EOZ1" s="1" t="inlineStr">
+      <c r="EPA1" s="1" t="inlineStr">
         <is>
           <t>소지자</t>
         </is>
       </c>
-      <c r="EPA1" s="1" t="inlineStr">
+      <c r="EPB1" s="1" t="inlineStr">
         <is>
           <t>역설</t>
         </is>
       </c>
-      <c r="EPB1" s="1" t="inlineStr">
+      <c r="EPC1" s="1" t="inlineStr">
         <is>
           <t>운영비</t>
         </is>
       </c>
-      <c r="EPC1" s="1" t="inlineStr">
+      <c r="EPD1" s="1" t="inlineStr">
         <is>
           <t>총액</t>
         </is>
       </c>
-      <c r="EPD1" s="1" t="inlineStr">
+      <c r="EPE1" s="1" t="inlineStr">
         <is>
           <t>추이</t>
         </is>
       </c>
-      <c r="EPE1" s="1" t="inlineStr">
+      <c r="EPF1" s="1" t="inlineStr">
         <is>
           <t>타교과</t>
         </is>
       </c>
-      <c r="EPF1" s="1" t="inlineStr">
+      <c r="EPG1" s="1" t="inlineStr">
         <is>
           <t>필수화</t>
         </is>
       </c>
-      <c r="EPG1" s="1" t="inlineStr">
+      <c r="EPH1" s="1" t="inlineStr">
         <is>
           <t>명목</t>
         </is>
       </c>
-      <c r="EPH1" s="1" t="inlineStr">
+      <c r="EPI1" s="1" t="inlineStr">
         <is>
           <t>연구소</t>
         </is>
       </c>
-      <c r="EPI1" s="1" t="inlineStr">
+      <c r="EPJ1" s="1" t="inlineStr">
         <is>
           <t>입각</t>
         </is>
       </c>
-      <c r="EPJ1" s="1" t="inlineStr">
+      <c r="EPK1" s="1" t="inlineStr">
         <is>
           <t>테크닉</t>
         </is>
       </c>
-      <c r="EPK1" s="1" t="inlineStr">
+      <c r="EPL1" s="1" t="inlineStr">
         <is>
           <t>cvr</t>
         </is>
       </c>
-      <c r="EPL1" s="1" t="inlineStr">
+      <c r="EPM1" s="1" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="EPM1" s="1" t="inlineStr">
+      <c r="EPN1" s="1" t="inlineStr">
         <is>
           <t>지도자</t>
         </is>
       </c>
-      <c r="EPN1" s="1" t="inlineStr">
+      <c r="EPO1" s="1" t="inlineStr">
         <is>
           <t>블록리</t>
         </is>
       </c>
-      <c r="EPO1" s="1" t="inlineStr">
+      <c r="EPP1" s="1" t="inlineStr">
         <is>
           <t>조사지</t>
         </is>
       </c>
-      <c r="EPP1" s="1" t="inlineStr">
+      <c r="EPQ1" s="1" t="inlineStr">
         <is>
           <t>코스페이시스</t>
         </is>
       </c>
-      <c r="EPQ1" s="1" t="inlineStr">
+      <c r="EPR1" s="1" t="inlineStr">
         <is>
           <t>디지털도구</t>
         </is>
       </c>
-      <c r="EPR1" s="1" t="inlineStr">
+      <c r="EPS1" s="1" t="inlineStr">
         <is>
           <t>디지털역량</t>
         </is>
       </c>
-      <c r="EPS1" s="1" t="inlineStr">
+      <c r="EPT1" s="1" t="inlineStr">
         <is>
           <t>디지털역량내용교수</t>
         </is>
       </c>
-      <c r="EPT1" s="1" t="inlineStr">
+      <c r="EPU1" s="1" t="inlineStr">
         <is>
           <t>디지털역량내용교수지식</t>
         </is>
       </c>
-      <c r="EPU1" s="1" t="inlineStr">
+      <c r="EPV1" s="1" t="inlineStr">
         <is>
           <t>인재상</t>
         </is>
       </c>
-      <c r="EPV1" s="1" t="inlineStr">
+      <c r="EPW1" s="1" t="inlineStr">
         <is>
           <t>마이</t>
         </is>
       </c>
-      <c r="EPW1" s="1" t="inlineStr">
+      <c r="EPX1" s="1" t="inlineStr">
         <is>
           <t>마이크</t>
         </is>
       </c>
-      <c r="EPX1" s="1" t="inlineStr">
+      <c r="EPY1" s="1" t="inlineStr">
         <is>
           <t>마이크로비트</t>
         </is>
       </c>
-      <c r="EPY1" s="1" t="inlineStr">
+      <c r="EPZ1" s="1" t="inlineStr">
         <is>
           <t>비트</t>
         </is>
       </c>
-      <c r="EPZ1" s="1" t="inlineStr">
+      <c r="EQA1" s="1" t="inlineStr">
         <is>
           <t>씽킹</t>
         </is>
       </c>
-      <c r="EQA1" s="1" t="inlineStr">
+      <c r="EQB1" s="1" t="inlineStr">
         <is>
           <t>diy</t>
         </is>
       </c>
-      <c r="EQB1" s="1" t="inlineStr">
+      <c r="EQC1" s="1" t="inlineStr">
         <is>
           <t>구성방안</t>
         </is>
       </c>
-      <c r="EQC1" s="1" t="inlineStr">
+      <c r="EQD1" s="1" t="inlineStr">
         <is>
           <t>메이킹</t>
         </is>
       </c>
-      <c r="EQD1" s="1" t="inlineStr">
+      <c r="EQE1" s="1" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
       </c>
-      <c r="EQE1" s="1" t="inlineStr">
+      <c r="EQF1" s="1" t="inlineStr">
         <is>
           <t>최고</t>
         </is>
       </c>
-      <c r="EQF1" s="1" t="inlineStr">
+      <c r="EQG1" s="1" t="inlineStr">
         <is>
           <t>mdiap</t>
         </is>
       </c>
-      <c r="EQG1" s="1" t="inlineStr">
+      <c r="EQH1" s="1" t="inlineStr">
         <is>
           <t>나선형</t>
         </is>
       </c>
-      <c r="EQH1" s="1" t="inlineStr">
+      <c r="EQI1" s="1" t="inlineStr">
         <is>
           <t>동시다발</t>
         </is>
       </c>
-      <c r="EQI1" s="1" t="inlineStr">
+      <c r="EQJ1" s="1" t="inlineStr">
         <is>
           <t>일련</t>
         </is>
       </c>
-      <c r="EQJ1" s="1" t="inlineStr">
+      <c r="EQK1" s="1" t="inlineStr">
         <is>
           <t>배틀</t>
         </is>
       </c>
-      <c r="EQK1" s="1" t="inlineStr">
+      <c r="EQL1" s="1" t="inlineStr">
         <is>
           <t>불럭</t>
         </is>
       </c>
-      <c r="EQL1" s="1" t="inlineStr">
+      <c r="EQM1" s="1" t="inlineStr">
         <is>
           <t>요목</t>
         </is>
       </c>
-      <c r="EQM1" s="1" t="inlineStr">
+      <c r="EQN1" s="1" t="inlineStr">
         <is>
           <t>영유아</t>
         </is>
       </c>
-      <c r="EQN1" s="1" t="inlineStr">
+      <c r="EQO1" s="1" t="inlineStr">
         <is>
           <t>인문</t>
         </is>
       </c>
-      <c r="EQO1" s="1" t="inlineStr">
+      <c r="EQP1" s="1" t="inlineStr">
         <is>
           <t>저조</t>
         </is>
       </c>
-      <c r="EQP1" s="1" t="inlineStr">
+      <c r="EQQ1" s="1" t="inlineStr">
         <is>
           <t>고전</t>
         </is>
       </c>
-      <c r="EQQ1" s="1" t="inlineStr">
+      <c r="EQR1" s="1" t="inlineStr">
         <is>
           <t>기하판</t>
         </is>
       </c>
-      <c r="EQR1" s="1" t="inlineStr">
+      <c r="EQS1" s="1" t="inlineStr">
         <is>
           <t>wing</t>
         </is>
       </c>
-      <c r="EQS1" s="1" t="inlineStr">
+      <c r="EQT1" s="1" t="inlineStr">
         <is>
           <t>합격자</t>
         </is>
       </c>
-      <c r="EQT1" s="1" t="inlineStr">
+      <c r="EQU1" s="1" t="inlineStr">
         <is>
           <t>블록형</t>
         </is>
       </c>
-      <c r="EQU1" s="1" t="inlineStr">
+      <c r="EQV1" s="1" t="inlineStr">
         <is>
           <t>파이썬</t>
         </is>
       </c>
-      <c r="EQV1" s="1" t="inlineStr">
+      <c r="EQW1" s="1" t="inlineStr">
         <is>
           <t>챌린</t>
         </is>
       </c>
-      <c r="EQW1" s="1" t="inlineStr">
+      <c r="EQX1" s="1" t="inlineStr">
         <is>
           <t>ai</t>
         </is>
       </c>
-      <c r="EQX1" s="1" t="inlineStr">
+      <c r="EQY1" s="1" t="inlineStr">
         <is>
           <t>선도학교</t>
         </is>
       </c>
-      <c r="EQY1" s="1" t="inlineStr">
+      <c r="EQZ1" s="1" t="inlineStr">
         <is>
           <t>성중심</t>
         </is>
       </c>
-      <c r="EQZ1" s="1" t="inlineStr">
+      <c r="ERA1" s="1" t="inlineStr">
         <is>
           <t>수련관</t>
         </is>
       </c>
-      <c r="ERA1" s="1" t="inlineStr">
+      <c r="ERB1" s="1" t="inlineStr">
         <is>
           <t>선형순차</t>
         </is>
       </c>
-      <c r="ERB1" s="1" t="inlineStr">
+      <c r="ERC1" s="1" t="inlineStr">
         <is>
           <t>자유도</t>
         </is>
       </c>
-      <c r="ERC1" s="1" t="inlineStr">
+      <c r="ERD1" s="1" t="inlineStr">
         <is>
           <t>테크</t>
         </is>
       </c>
-      <c r="ERD1" s="1" t="inlineStr">
+      <c r="ERE1" s="1" t="inlineStr">
         <is>
           <t>서류</t>
         </is>
       </c>
-      <c r="ERE1" s="1" t="inlineStr">
+      <c r="ERF1" s="1" t="inlineStr">
         <is>
           <t>초등융합</t>
         </is>
       </c>
-      <c r="ERF1" s="1" t="inlineStr">
+      <c r="ERG1" s="1" t="inlineStr">
         <is>
           <t>icils</t>
         </is>
       </c>
-      <c r="ERG1" s="1" t="inlineStr">
+      <c r="ERH1" s="1" t="inlineStr">
         <is>
           <t>위원</t>
         </is>
       </c>
-      <c r="ERH1" s="1" t="inlineStr">
+      <c r="ERI1" s="1" t="inlineStr">
         <is>
           <t>책자</t>
         </is>
       </c>
-      <c r="ERI1" s="1" t="inlineStr">
+      <c r="ERJ1" s="1" t="inlineStr">
         <is>
           <t>hierarchical</t>
         </is>
       </c>
-      <c r="ERJ1" s="1" t="inlineStr">
+      <c r="ERK1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="ERK1" s="1" t="inlineStr">
+      <c r="ERL1" s="1" t="inlineStr">
         <is>
           <t>linear</t>
         </is>
       </c>
-      <c r="ERL1" s="1" t="inlineStr">
+      <c r="ERM1" s="1" t="inlineStr">
         <is>
           <t>two</t>
         </is>
       </c>
-      <c r="ERM1" s="1" t="inlineStr">
+      <c r="ERN1" s="1" t="inlineStr">
         <is>
           <t>공평함</t>
         </is>
       </c>
-      <c r="ERN1" s="1" t="inlineStr">
+      <c r="ERO1" s="1" t="inlineStr">
         <is>
           <t>오락</t>
         </is>
       </c>
-      <c r="ERO1" s="1" t="inlineStr">
+      <c r="ERP1" s="1" t="inlineStr">
         <is>
           <t>이벤트</t>
         </is>
       </c>
-      <c r="ERP1" s="1" t="inlineStr">
+      <c r="ERQ1" s="1" t="inlineStr">
         <is>
           <t>공업</t>
         </is>
       </c>
-      <c r="ERQ1" s="1" t="inlineStr">
+      <c r="ERR1" s="1" t="inlineStr">
         <is>
           <t>내외향</t>
         </is>
       </c>
-      <c r="ERR1" s="1" t="inlineStr">
+      <c r="ERS1" s="1" t="inlineStr">
         <is>
           <t>신청학생</t>
         </is>
       </c>
-      <c r="ERS1" s="1" t="inlineStr">
+      <c r="ERT1" s="1" t="inlineStr">
         <is>
           <t>진단지</t>
         </is>
       </c>
-      <c r="ERT1" s="1" t="inlineStr">
+      <c r="ERU1" s="1" t="inlineStr">
         <is>
           <t>내러티브</t>
         </is>
       </c>
-      <c r="ERU1" s="1" t="inlineStr">
+      <c r="ERV1" s="1" t="inlineStr">
         <is>
           <t>종이아</t>
         </is>
       </c>
-      <c r="ERV1" s="1" t="inlineStr">
+      <c r="ERW1" s="1" t="inlineStr">
         <is>
           <t>종이아트</t>
         </is>
       </c>
-      <c r="ERW1" s="1" t="inlineStr">
+      <c r="ERX1" s="1" t="inlineStr">
         <is>
           <t>pagerank</t>
         </is>
       </c>
-      <c r="ERX1" s="1" t="inlineStr">
+      <c r="ERY1" s="1" t="inlineStr">
         <is>
           <t>모사</t>
         </is>
       </c>
-      <c r="ERY1" s="1" t="inlineStr">
+      <c r="ERZ1" s="1" t="inlineStr">
         <is>
           <t>상식</t>
         </is>
       </c>
-      <c r="ERZ1" s="1" t="inlineStr">
+      <c r="ESA1" s="1" t="inlineStr">
         <is>
           <t>cpu</t>
         </is>
       </c>
-      <c r="ESA1" s="1" t="inlineStr">
+      <c r="ESB1" s="1" t="inlineStr">
         <is>
           <t>ghz</t>
         </is>
       </c>
-      <c r="ESB1" s="1" t="inlineStr">
+      <c r="ESC1" s="1" t="inlineStr">
         <is>
           <t>mega</t>
         </is>
       </c>
-      <c r="ESC1" s="1" t="inlineStr">
+      <c r="ESD1" s="1" t="inlineStr">
         <is>
           <t>mook</t>
         </is>
       </c>
-      <c r="ESD1" s="1" t="inlineStr">
+      <c r="ESE1" s="1" t="inlineStr">
         <is>
           <t>ram</t>
         </is>
       </c>
-      <c r="ESE1" s="1" t="inlineStr">
+      <c r="ESF1" s="1" t="inlineStr">
         <is>
           <t>노트북</t>
         </is>
       </c>
-      <c r="ESF1" s="1" t="inlineStr">
+      <c r="ESG1" s="1" t="inlineStr">
         <is>
           <t>무크</t>
         </is>
       </c>
-      <c r="ESG1" s="1" t="inlineStr">
+      <c r="ESH1" s="1" t="inlineStr">
         <is>
           <t>바이트</t>
         </is>
       </c>
-      <c r="ESH1" s="1" t="inlineStr">
+      <c r="ESI1" s="1" t="inlineStr">
         <is>
           <t>사용량</t>
         </is>
       </c>
-      <c r="ESI1" s="1" t="inlineStr">
+      <c r="ESJ1" s="1" t="inlineStr">
         <is>
           <t>오디오</t>
         </is>
       </c>
-      <c r="ESJ1" s="1" t="inlineStr">
+      <c r="ESK1" s="1" t="inlineStr">
         <is>
           <t>점유</t>
         </is>
       </c>
-      <c r="ESK1" s="1" t="inlineStr">
+      <c r="ESL1" s="1" t="inlineStr">
         <is>
           <t>구인</t>
         </is>
       </c>
-      <c r="ESL1" s="1" t="inlineStr">
+      <c r="ESM1" s="1" t="inlineStr">
         <is>
           <t>융합프로그램</t>
         </is>
       </c>
-      <c r="ESM1" s="1" t="inlineStr">
+      <c r="ESN1" s="1" t="inlineStr">
         <is>
           <t>귀납</t>
         </is>
       </c>
-      <c r="ESN1" s="1" t="inlineStr">
+      <c r="ESO1" s="1" t="inlineStr">
         <is>
           <t>연역</t>
         </is>
       </c>
-      <c r="ESO1" s="1" t="inlineStr">
+      <c r="ESP1" s="1" t="inlineStr">
         <is>
           <t>사화</t>
         </is>
       </c>
-      <c r="ESP1" s="1" t="inlineStr">
+      <c r="ESQ1" s="1" t="inlineStr">
         <is>
           <t>borich</t>
         </is>
       </c>
-      <c r="ESQ1" s="1" t="inlineStr">
+      <c r="ESR1" s="1" t="inlineStr">
         <is>
           <t>focus</t>
         </is>
       </c>
-      <c r="ESR1" s="1" t="inlineStr">
+      <c r="ESS1" s="1" t="inlineStr">
         <is>
           <t>locus</t>
         </is>
       </c>
-      <c r="ESS1" s="1" t="inlineStr">
+      <c r="EST1" s="1" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="EST1" s="1" t="inlineStr">
+      <c r="ESU1" s="1" t="inlineStr">
         <is>
           <t>고성능컴퓨팅</t>
         </is>
       </c>
-      <c r="ESU1" s="1" t="inlineStr">
+      <c r="ESV1" s="1" t="inlineStr">
         <is>
           <t>병렬</t>
         </is>
       </c>
-      <c r="ESV1" s="1" t="inlineStr">
+      <c r="ESW1" s="1" t="inlineStr">
         <is>
           <t>성능컴퓨팅</t>
         </is>
       </c>
-      <c r="ESW1" s="1" t="inlineStr">
+      <c r="ESX1" s="1" t="inlineStr">
         <is>
           <t>요구도</t>
         </is>
       </c>
-      <c r="ESX1" s="1" t="inlineStr">
+      <c r="ESY1" s="1" t="inlineStr">
         <is>
           <t>후보</t>
         </is>
       </c>
-      <c r="ESY1" s="1" t="inlineStr">
+      <c r="ESZ1" s="1" t="inlineStr">
         <is>
           <t>단계설문지</t>
         </is>
       </c>
-      <c r="ESZ1" s="1" t="inlineStr">
+      <c r="ETA1" s="1" t="inlineStr">
         <is>
           <t>부처</t>
         </is>
       </c>
-      <c r="ETA1" s="1" t="inlineStr">
+      <c r="ETB1" s="1" t="inlineStr">
         <is>
           <t>세미나</t>
         </is>
       </c>
-      <c r="ETB1" s="1" t="inlineStr">
+      <c r="ETC1" s="1" t="inlineStr">
         <is>
           <t>연구회</t>
         </is>
       </c>
-      <c r="ETC1" s="1" t="inlineStr">
+      <c r="ETD1" s="1" t="inlineStr">
         <is>
           <t>유튜브</t>
         </is>
       </c>
-      <c r="ETD1" s="1" t="inlineStr">
+      <c r="ETE1" s="1" t="inlineStr">
         <is>
           <t>장학</t>
         </is>
       </c>
-      <c r="ETE1" s="1" t="inlineStr">
+      <c r="ETF1" s="1" t="inlineStr">
         <is>
           <t>컨설팅</t>
         </is>
       </c>
-      <c r="ETF1" s="1" t="inlineStr">
+      <c r="ETG1" s="1" t="inlineStr">
         <is>
           <t>허브</t>
         </is>
       </c>
-      <c r="ETG1" s="1" t="inlineStr">
+      <c r="ETH1" s="1" t="inlineStr">
         <is>
           <t>현업</t>
         </is>
       </c>
-      <c r="ETH1" s="1" t="inlineStr">
+      <c r="ETI1" s="1" t="inlineStr">
         <is>
           <t>cbam</t>
         </is>
       </c>
-      <c r="ETI1" s="1" t="inlineStr">
+      <c r="ETJ1" s="1" t="inlineStr">
         <is>
           <t>hall</t>
         </is>
       </c>
-      <c r="ETJ1" s="1" t="inlineStr">
+      <c r="ETK1" s="1" t="inlineStr">
         <is>
           <t>hord</t>
         </is>
       </c>
-      <c r="ETK1" s="1" t="inlineStr">
+      <c r="ETL1" s="1" t="inlineStr">
         <is>
           <t>앱개발</t>
         </is>
       </c>
-      <c r="ETL1" s="1" t="inlineStr">
+      <c r="ETM1" s="1" t="inlineStr">
         <is>
           <t>프로파일</t>
         </is>
       </c>
-      <c r="ETM1" s="1" t="inlineStr">
+      <c r="ETN1" s="1" t="inlineStr">
         <is>
           <t>access</t>
         </is>
       </c>
-      <c r="ETN1" s="1" t="inlineStr">
+      <c r="ETO1" s="1" t="inlineStr">
         <is>
           <t>oer</t>
         </is>
       </c>
-      <c r="ETO1" s="1" t="inlineStr">
+      <c r="ETP1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="ETP1" s="1" t="inlineStr">
+      <c r="ETQ1" s="1" t="inlineStr">
         <is>
           <t>resource</t>
         </is>
       </c>
-      <c r="ETQ1" s="1" t="inlineStr">
+      <c r="ETR1" s="1" t="inlineStr">
         <is>
           <t>diversify</t>
         </is>
       </c>
-      <c r="ETR1" s="1" t="inlineStr">
+      <c r="ETS1" s="1" t="inlineStr">
         <is>
           <t>idol</t>
         </is>
       </c>
-      <c r="ETS1" s="1" t="inlineStr">
+      <c r="ETT1" s="1" t="inlineStr">
         <is>
           <t>implement</t>
         </is>
       </c>
-      <c r="ETT1" s="1" t="inlineStr">
+      <c r="ETU1" s="1" t="inlineStr">
         <is>
           <t>observe</t>
         </is>
       </c>
-      <c r="ETU1" s="1" t="inlineStr">
+      <c r="ETV1" s="1" t="inlineStr">
         <is>
           <t>다변</t>
         </is>
       </c>
-      <c r="ETV1" s="1" t="inlineStr">
+      <c r="ETW1" s="1" t="inlineStr">
         <is>
           <t>덜파이</t>
         </is>
       </c>
-      <c r="ETW1" s="1" t="inlineStr">
+      <c r="ETX1" s="1" t="inlineStr">
         <is>
           <t>아이돌</t>
         </is>
       </c>
-      <c r="ETX1" s="1" t="inlineStr">
+      <c r="ETY1" s="1" t="inlineStr">
         <is>
           <t>그릿</t>
         </is>
       </c>
-      <c r="ETY1" s="1" t="inlineStr">
+      <c r="ETZ1" s="1" t="inlineStr">
         <is>
           <t>부모지원</t>
         </is>
       </c>
-      <c r="ETZ1" s="1" t="inlineStr">
+      <c r="EUA1" s="1" t="inlineStr">
         <is>
           <t>kci</t>
         </is>
       </c>
-      <c r="EUA1" s="1" t="inlineStr">
+      <c r="EUB1" s="1" t="inlineStr">
         <is>
           <t>소주</t>
         </is>
       </c>
-      <c r="EUB1" s="1" t="inlineStr">
+      <c r="EUC1" s="1" t="inlineStr">
         <is>
           <t>인용</t>
         </is>
       </c>
-      <c r="EUC1" s="1" t="inlineStr">
+      <c r="EUD1" s="1" t="inlineStr">
         <is>
           <t>인용색인</t>
         </is>
       </c>
-      <c r="EUD1" s="1" t="inlineStr">
+      <c r="EUE1" s="1" t="inlineStr">
         <is>
           <t>중첩</t>
         </is>
       </c>
-      <c r="EUE1" s="1" t="inlineStr">
+      <c r="EUF1" s="1" t="inlineStr">
         <is>
           <t>학회</t>
         </is>
       </c>
-      <c r="EUF1" s="1" t="inlineStr">
+      <c r="EUG1" s="1" t="inlineStr">
         <is>
           <t>회수</t>
         </is>
       </c>
-      <c r="EUG1" s="1" t="inlineStr">
+      <c r="EUH1" s="1" t="inlineStr">
         <is>
           <t>csunplugged</t>
         </is>
       </c>
-      <c r="EUH1" s="1" t="inlineStr">
+      <c r="EUI1" s="1" t="inlineStr">
         <is>
           <t>삽입</t>
         </is>
       </c>
-      <c r="EUI1" s="1" t="inlineStr">
+      <c r="EUJ1" s="1" t="inlineStr">
         <is>
           <t>구비</t>
         </is>
       </c>
-      <c r="EUJ1" s="1" t="inlineStr">
+      <c r="EUK1" s="1" t="inlineStr">
         <is>
           <t>미래인재</t>
         </is>
       </c>
-      <c r="EUK1" s="1" t="inlineStr">
+      <c r="EUL1" s="1" t="inlineStr">
         <is>
           <t>의수</t>
         </is>
       </c>
-      <c r="EUL1" s="1" t="inlineStr">
+      <c r="EUM1" s="1" t="inlineStr">
         <is>
           <t>창의융합</t>
         </is>
       </c>
-      <c r="EUM1" s="1" t="inlineStr">
+      <c r="EUN1" s="1" t="inlineStr">
         <is>
           <t>핵심인재</t>
         </is>
       </c>
-      <c r="EUN1" s="1" t="inlineStr">
+      <c r="EUO1" s="1" t="inlineStr">
         <is>
           <t>핵심인재상</t>
         </is>
       </c>
-      <c r="EUO1" s="1" t="inlineStr">
+      <c r="EUP1" s="1" t="inlineStr">
         <is>
           <t>iea</t>
         </is>
       </c>
-      <c r="EUP1" s="1" t="inlineStr">
+      <c r="EUQ1" s="1" t="inlineStr">
         <is>
           <t>modi</t>
         </is>
       </c>
-      <c r="EUQ1" s="1" t="inlineStr">
+      <c r="EUR1" s="1" t="inlineStr">
         <is>
           <t>코딩블록</t>
         </is>
       </c>
-      <c r="EUR1" s="1" t="inlineStr">
+      <c r="EUS1" s="1" t="inlineStr">
         <is>
           <t>협회</t>
         </is>
       </c>
-      <c r="EUS1" s="1" t="inlineStr">
+      <c r="EUT1" s="1" t="inlineStr">
         <is>
           <t>maker</t>
         </is>
       </c>
-      <c r="EUT1" s="1" t="inlineStr">
+      <c r="EUU1" s="1" t="inlineStr">
         <is>
           <t>movement</t>
         </is>
       </c>
-      <c r="EUU1" s="1" t="inlineStr">
+      <c r="EUV1" s="1" t="inlineStr">
         <is>
           <t>레이저</t>
         </is>
       </c>
-      <c r="EUV1" s="1" t="inlineStr">
+      <c r="EUW1" s="1" t="inlineStr">
         <is>
           <t>커팅기</t>
         </is>
       </c>
-      <c r="EUW1" s="1" t="inlineStr">
+      <c r="EUX1" s="1" t="inlineStr">
         <is>
           <t>피지컬컴퓨팅</t>
         </is>
       </c>
-      <c r="EUX1" s="1" t="inlineStr">
+      <c r="EUY1" s="1" t="inlineStr">
         <is>
           <t>인내심</t>
         </is>
       </c>
-      <c r="EUY1" s="1" t="inlineStr">
+      <c r="EUZ1" s="1" t="inlineStr">
         <is>
           <t>가이드북</t>
         </is>
       </c>
-      <c r="EUZ1" s="1" t="inlineStr">
+      <c r="EVA1" s="1" t="inlineStr">
         <is>
           <t>감수</t>
         </is>
       </c>
-      <c r="EVA1" s="1" t="inlineStr">
+      <c r="EVB1" s="1" t="inlineStr">
         <is>
           <t>메이커교육</t>
         </is>
       </c>
-      <c r="EVB1" s="1" t="inlineStr">
+      <c r="EVC1" s="1" t="inlineStr">
         <is>
           <t>완료</t>
         </is>
       </c>
-      <c r="EVC1" s="1" t="inlineStr">
+      <c r="EVD1" s="1" t="inlineStr">
         <is>
           <t>워크시트</t>
         </is>
       </c>
-      <c r="EVD1" s="1" t="inlineStr">
+      <c r="EVE1" s="1" t="inlineStr">
         <is>
           <t>주제군</t>
         </is>
       </c>
-      <c r="EVE1" s="1" t="inlineStr">
+      <c r="EVF1" s="1" t="inlineStr">
         <is>
           <t>착근</t>
         </is>
       </c>
-      <c r="EVF1" s="1" t="inlineStr">
+      <c r="EVG1" s="1" t="inlineStr">
         <is>
           <t>파일럿</t>
         </is>
       </c>
-      <c r="EVG1" s="1" t="inlineStr">
+      <c r="EVH1" s="1" t="inlineStr">
         <is>
           <t>sweet</t>
         </is>
       </c>
-      <c r="EVH1" s="1" t="inlineStr">
+      <c r="EVI1" s="1" t="inlineStr">
         <is>
           <t>내년</t>
         </is>
       </c>
-      <c r="EVI1" s="1" t="inlineStr">
+      <c r="EVJ1" s="1" t="inlineStr">
         <is>
           <t>원양성대</t>
         </is>
       </c>
-      <c r="EVJ1" s="1" t="inlineStr">
+      <c r="EVK1" s="1" t="inlineStr">
         <is>
           <t>데이트</t>
         </is>
       </c>
-      <c r="EVK1" s="1" t="inlineStr">
+      <c r="EVL1" s="1" t="inlineStr">
         <is>
           <t>젠테이션</t>
         </is>
       </c>
-      <c r="EVL1" s="1" t="inlineStr">
+      <c r="EVM1" s="1" t="inlineStr">
         <is>
           <t>파트</t>
         </is>
       </c>
-      <c r="EVM1" s="1" t="inlineStr">
+      <c r="EVN1" s="1" t="inlineStr">
         <is>
           <t>양적</t>
         </is>
       </c>
-      <c r="EVN1" s="1" t="inlineStr">
+      <c r="EVO1" s="1" t="inlineStr">
         <is>
           <t>machine</t>
         </is>
       </c>
-      <c r="EVO1" s="1" t="inlineStr">
+      <c r="EVP1" s="1" t="inlineStr">
         <is>
           <t>머신러닝</t>
         </is>
       </c>
-      <c r="EVP1" s="1" t="inlineStr">
+      <c r="EVQ1" s="1" t="inlineStr">
         <is>
           <t>연구학교</t>
         </is>
       </c>
-      <c r="EVQ1" s="1" t="inlineStr">
+      <c r="EVR1" s="1" t="inlineStr">
         <is>
           <t>향상도</t>
         </is>
       </c>
-      <c r="EVR1" s="1" t="inlineStr">
+      <c r="EVS1" s="1" t="inlineStr">
         <is>
           <t>효인</t>
         </is>
       </c>
-      <c r="EVS1" s="1" t="inlineStr">
+      <c r="EVT1" s="1" t="inlineStr">
         <is>
           <t>lms</t>
         </is>
       </c>
-      <c r="EVT1" s="1" t="inlineStr">
+      <c r="EVU1" s="1" t="inlineStr">
         <is>
           <t>취도</t>
         </is>
       </c>
-      <c r="EVU1" s="1" t="inlineStr">
+      <c r="EVV1" s="1" t="inlineStr">
         <is>
           <t>위두</t>
         </is>
       </c>
-      <c r="EVV1" s="1" t="inlineStr">
+      <c r="EVW1" s="1" t="inlineStr">
         <is>
           <t>참여자</t>
         </is>
       </c>
-      <c r="EVW1" s="1" t="inlineStr">
+      <c r="EVX1" s="1" t="inlineStr">
         <is>
           <t>블록체</t>
         </is>
       </c>
-      <c r="EVX1" s="1" t="inlineStr">
+      <c r="EVY1" s="1" t="inlineStr">
         <is>
           <t>블록체인</t>
         </is>
       </c>
-      <c r="EVY1" s="1" t="inlineStr">
+      <c r="EVZ1" s="1" t="inlineStr">
         <is>
           <t>처리역량</t>
         </is>
       </c>
-      <c r="EVZ1" s="1" t="inlineStr">
+      <c r="EWA1" s="1" t="inlineStr">
         <is>
           <t>체역량</t>
         </is>
       </c>
-      <c r="EWA1" s="1" t="inlineStr">
+      <c r="EWB1" s="1" t="inlineStr">
         <is>
           <t>체인</t>
         </is>
       </c>
-      <c r="EWB1" s="1" t="inlineStr">
+      <c r="EWC1" s="1" t="inlineStr">
         <is>
           <t>해결법</t>
         </is>
       </c>
-      <c r="EWC1" s="1" t="inlineStr">
+      <c r="EWD1" s="1" t="inlineStr">
         <is>
           <t>일체</t>
         </is>
       </c>
-      <c r="EWD1" s="1" t="inlineStr">
+      <c r="EWE1" s="1" t="inlineStr">
         <is>
           <t>폐쇄</t>
         </is>
       </c>
-      <c r="EWE1" s="1" t="inlineStr">
+      <c r="EWF1" s="1" t="inlineStr">
         <is>
           <t>문맥</t>
         </is>
       </c>
-      <c r="EWF1" s="1" t="inlineStr">
+      <c r="EWG1" s="1" t="inlineStr">
         <is>
           <t>지원청</t>
         </is>
       </c>
-      <c r="EWG1" s="1" t="inlineStr">
+      <c r="EWH1" s="1" t="inlineStr">
         <is>
           <t>발원</t>
         </is>
       </c>
-      <c r="EWH1" s="1" t="inlineStr">
+      <c r="EWI1" s="1" t="inlineStr">
         <is>
           <t>한국교육개발원</t>
         </is>
       </c>
-      <c r="EWI1" s="1" t="inlineStr">
+      <c r="EWJ1" s="1" t="inlineStr">
         <is>
           <t>경과</t>
         </is>
       </c>
-      <c r="EWJ1" s="1" t="inlineStr">
+      <c r="EWK1" s="1" t="inlineStr">
         <is>
           <t>경주</t>
         </is>
       </c>
-      <c r="EWK1" s="1" t="inlineStr">
+      <c r="EWL1" s="1" t="inlineStr">
         <is>
           <t>제한점</t>
         </is>
       </c>
-      <c r="EWL1" s="1" t="inlineStr">
+      <c r="EWM1" s="1" t="inlineStr">
         <is>
           <t>딱지</t>
         </is>
       </c>
-      <c r="EWM1" s="1" t="inlineStr">
+      <c r="EWN1" s="1" t="inlineStr">
         <is>
           <t>부록</t>
         </is>
       </c>
-      <c r="EWN1" s="1" t="inlineStr">
+      <c r="EWO1" s="1" t="inlineStr">
         <is>
           <t>삽화</t>
         </is>
       </c>
-      <c r="EWO1" s="1" t="inlineStr">
+      <c r="EWP1" s="1" t="inlineStr">
         <is>
           <t>연간</t>
         </is>
       </c>
-      <c r="EWP1" s="1" t="inlineStr">
+      <c r="EWQ1" s="1" t="inlineStr">
         <is>
           <t>중국</t>
         </is>
       </c>
-      <c r="EWQ1" s="1" t="inlineStr">
+      <c r="EWR1" s="1" t="inlineStr">
         <is>
           <t>게이미피게이션</t>
         </is>
       </c>
-      <c r="EWR1" s="1" t="inlineStr">
+      <c r="EWS1" s="1" t="inlineStr">
         <is>
           <t>드게</t>
         </is>
       </c>
-      <c r="EWS1" s="1" t="inlineStr">
+      <c r="EWT1" s="1" t="inlineStr">
         <is>
           <t>codeblocks</t>
         </is>
       </c>
-      <c r="EWT1" s="1" t="inlineStr">
+      <c r="EWU1" s="1" t="inlineStr">
         <is>
           <t>틴커캐드</t>
         </is>
       </c>
-      <c r="EWU1" s="1" t="inlineStr">
+      <c r="EWV1" s="1" t="inlineStr">
         <is>
           <t>화면속</t>
         </is>
       </c>
-      <c r="EWV1" s="1" t="inlineStr">
+      <c r="EWW1" s="1" t="inlineStr">
         <is>
           <t>전격</t>
         </is>
       </c>
-      <c r="EWW1" s="1" t="inlineStr">
+      <c r="EWX1" s="1" t="inlineStr">
         <is>
           <t>프랑스</t>
         </is>
       </c>
-      <c r="EWX1" s="1" t="inlineStr">
+      <c r="EWY1" s="1" t="inlineStr">
         <is>
           <t>플랜</t>
         </is>
       </c>
-      <c r="EWY1" s="1" t="inlineStr">
+      <c r="EWZ1" s="1" t="inlineStr">
         <is>
           <t>짝프로그래밍</t>
         </is>
       </c>
-      <c r="EWZ1" s="1" t="inlineStr">
+      <c r="EXA1" s="1" t="inlineStr">
         <is>
           <t>출범</t>
         </is>
       </c>
-      <c r="EXA1" s="1" t="inlineStr">
+      <c r="EXB1" s="1" t="inlineStr">
         <is>
           <t>kinect</t>
         </is>
       </c>
-      <c r="EXB1" s="1" t="inlineStr">
+      <c r="EXC1" s="1" t="inlineStr">
         <is>
           <t>다감각</t>
         </is>
       </c>
-      <c r="EXC1" s="1" t="inlineStr">
+      <c r="EXD1" s="1" t="inlineStr">
         <is>
           <t>환상</t>
         </is>
       </c>
-      <c r="EXD1" s="1" t="inlineStr">
+      <c r="EXE1" s="1" t="inlineStr">
         <is>
           <t>csta</t>
         </is>
       </c>
-      <c r="EXE1" s="1" t="inlineStr">
+      <c r="EXF1" s="1" t="inlineStr">
         <is>
           <t>iste</t>
         </is>
       </c>
-      <c r="EXF1" s="1" t="inlineStr">
+      <c r="EXG1" s="1" t="inlineStr">
         <is>
           <t>수감각</t>
         </is>
       </c>
-      <c r="EXG1" s="1" t="inlineStr">
+      <c r="EXH1" s="1" t="inlineStr">
         <is>
           <t>경상</t>
         </is>
       </c>
-      <c r="EXH1" s="1" t="inlineStr">
+      <c r="EXI1" s="1" t="inlineStr">
         <is>
           <t>설문데이터</t>
         </is>
       </c>
-      <c r="EXI1" s="1" t="inlineStr">
+      <c r="EXJ1" s="1" t="inlineStr">
         <is>
           <t>예체</t>
         </is>
       </c>
-      <c r="EXJ1" s="1" t="inlineStr">
+      <c r="EXK1" s="1" t="inlineStr">
         <is>
           <t>전교</t>
         </is>
       </c>
-      <c r="EXK1" s="1" t="inlineStr">
+      <c r="EXL1" s="1" t="inlineStr">
         <is>
           <t>viscuit</t>
         </is>
       </c>
-      <c r="EXL1" s="1" t="inlineStr">
+      <c r="EXM1" s="1" t="inlineStr">
         <is>
           <t>국외</t>
         </is>
       </c>
-      <c r="EXM1" s="1" t="inlineStr">
+      <c r="EXN1" s="1" t="inlineStr">
         <is>
           <t>비스킷</t>
         </is>
       </c>
-      <c r="EXN1" s="1" t="inlineStr">
+      <c r="EXO1" s="1" t="inlineStr">
         <is>
           <t>스크래치주니어</t>
         </is>
       </c>
-      <c r="EXO1" s="1" t="inlineStr">
+      <c r="EXP1" s="1" t="inlineStr">
         <is>
           <t>주니</t>
         </is>
       </c>
-      <c r="EXP1" s="1" t="inlineStr">
+      <c r="EXQ1" s="1" t="inlineStr">
         <is>
           <t>lc</t>
         </is>
       </c>
-      <c r="EXQ1" s="1" t="inlineStr">
+      <c r="EXR1" s="1" t="inlineStr">
         <is>
           <t>베이지</t>
         </is>
       </c>
-      <c r="EXR1" s="1" t="inlineStr">
+      <c r="EXS1" s="1" t="inlineStr">
         <is>
           <t>베이지안</t>
         </is>
       </c>
-      <c r="EXS1" s="1" t="inlineStr">
+      <c r="EXT1" s="1" t="inlineStr">
         <is>
           <t>상대방</t>
         </is>
       </c>
-      <c r="EXT1" s="1" t="inlineStr">
+      <c r="EXU1" s="1" t="inlineStr">
         <is>
           <t>테스트베드</t>
         </is>
       </c>
-      <c r="EXU1" s="1" t="inlineStr">
+      <c r="EXV1" s="1" t="inlineStr">
         <is>
           <t>로그데이터</t>
         </is>
       </c>
-      <c r="EXV1" s="1" t="inlineStr">
+      <c r="EXW1" s="1" t="inlineStr">
         <is>
           <t>방송고</t>
         </is>
       </c>
-      <c r="EXW1" s="1" t="inlineStr">
+      <c r="EXX1" s="1" t="inlineStr">
         <is>
           <t>성실도</t>
         </is>
       </c>
-      <c r="EXX1" s="1" t="inlineStr">
+      <c r="EXY1" s="1" t="inlineStr">
         <is>
           <t>왜도</t>
         </is>
       </c>
-      <c r="EXY1" s="1" t="inlineStr">
+      <c r="EXZ1" s="1" t="inlineStr">
         <is>
           <t>진도</t>
         </is>
       </c>
-      <c r="EXZ1" s="1" t="inlineStr">
+      <c r="EYA1" s="1" t="inlineStr">
         <is>
           <t>차시당</t>
         </is>
       </c>
-      <c r="EYA1" s="1" t="inlineStr">
+      <c r="EYB1" s="1" t="inlineStr">
         <is>
           <t>첨도</t>
         </is>
       </c>
-      <c r="EYB1" s="1" t="inlineStr">
+      <c r="EYC1" s="1" t="inlineStr">
         <is>
           <t>학기동안</t>
         </is>
       </c>
-      <c r="EYC1" s="1" t="inlineStr">
+      <c r="EYD1" s="1" t="inlineStr">
         <is>
           <t>tinkercad</t>
         </is>
       </c>
-      <c r="EYD1" s="1" t="inlineStr">
+      <c r="EYE1" s="1" t="inlineStr">
         <is>
           <t>dslr</t>
         </is>
       </c>
-      <c r="EYE1" s="1" t="inlineStr">
+      <c r="EYF1" s="1" t="inlineStr">
         <is>
           <t>두이</t>
         </is>
       </c>
-      <c r="EYF1" s="1" t="inlineStr">
+      <c r="EYG1" s="1" t="inlineStr">
         <is>
           <t>두이노</t>
         </is>
       </c>
-      <c r="EYG1" s="1" t="inlineStr">
+      <c r="EYH1" s="1" t="inlineStr">
         <is>
           <t>복합물</t>
         </is>
       </c>
-      <c r="EYH1" s="1" t="inlineStr">
+      <c r="EYI1" s="1" t="inlineStr">
         <is>
           <t>슈팅</t>
         </is>
       </c>
-      <c r="EYI1" s="1" t="inlineStr">
+      <c r="EYJ1" s="1" t="inlineStr">
         <is>
           <t>신호</t>
         </is>
       </c>
-      <c r="EYJ1" s="1" t="inlineStr">
+      <c r="EYK1" s="1" t="inlineStr">
         <is>
           <t>일자</t>
         </is>
       </c>
-      <c r="EYK1" s="1" t="inlineStr">
+      <c r="EYL1" s="1" t="inlineStr">
         <is>
           <t>임베디드</t>
         </is>
       </c>
-      <c r="EYL1" s="1" t="inlineStr">
+      <c r="EYM1" s="1" t="inlineStr">
         <is>
           <t>저전력</t>
         </is>
       </c>
-      <c r="EYM1" s="1" t="inlineStr">
+      <c r="EYN1" s="1" t="inlineStr">
         <is>
           <t>전력량</t>
         </is>
       </c>
-      <c r="EYN1" s="1" t="inlineStr">
+      <c r="EYO1" s="1" t="inlineStr">
         <is>
           <t>절전</t>
         </is>
       </c>
-      <c r="EYO1" s="1" t="inlineStr">
+      <c r="EYP1" s="1" t="inlineStr">
         <is>
           <t>태양</t>
         </is>
       </c>
-      <c r="EYP1" s="1" t="inlineStr">
+      <c r="EYQ1" s="1" t="inlineStr">
         <is>
           <t>태양광</t>
         </is>
       </c>
-      <c r="EYQ1" s="1" t="inlineStr">
+      <c r="EYR1" s="1" t="inlineStr">
         <is>
           <t>펌웨어</t>
         </is>
       </c>
-      <c r="EYR1" s="1" t="inlineStr">
+      <c r="EYS1" s="1" t="inlineStr">
         <is>
           <t>문해력</t>
         </is>
       </c>
-      <c r="EYS1" s="1" t="inlineStr">
+      <c r="EYT1" s="1" t="inlineStr">
         <is>
           <t>제공자</t>
         </is>
       </c>
-      <c r="EYT1" s="1" t="inlineStr">
+      <c r="EYU1" s="1" t="inlineStr">
         <is>
           <t>brennan</t>
         </is>
       </c>
-      <c r="EYU1" s="1" t="inlineStr">
+      <c r="EYV1" s="1" t="inlineStr">
         <is>
           <t>resnick</t>
         </is>
       </c>
-      <c r="EYV1" s="1" t="inlineStr">
+      <c r="EYW1" s="1" t="inlineStr">
         <is>
           <t>cqr</t>
         </is>
       </c>
-      <c r="EYW1" s="1" t="inlineStr">
+      <c r="EYX1" s="1" t="inlineStr">
         <is>
           <t>변동</t>
         </is>
       </c>
-      <c r="EYX1" s="1" t="inlineStr">
+      <c r="EYY1" s="1" t="inlineStr">
         <is>
           <t>오우크쇼트</t>
         </is>
       </c>
-      <c r="EYY1" s="1" t="inlineStr">
+      <c r="EYZ1" s="1" t="inlineStr">
         <is>
           <t>철학</t>
         </is>
       </c>
-      <c r="EYZ1" s="1" t="inlineStr">
+      <c r="EZA1" s="1" t="inlineStr">
         <is>
           <t>교수진</t>
         </is>
       </c>
-      <c r="EZA1" s="1" t="inlineStr">
+      <c r="EZB1" s="1" t="inlineStr">
         <is>
           <t>조교</t>
         </is>
       </c>
-      <c r="EZB1" s="1" t="inlineStr">
+      <c r="EZC1" s="1" t="inlineStr">
         <is>
           <t>트랙</t>
         </is>
       </c>
-      <c r="EZC1" s="1" t="inlineStr">
+      <c r="EZD1" s="1" t="inlineStr">
         <is>
           <t>특화</t>
         </is>
       </c>
-      <c r="EZD1" s="1" t="inlineStr">
+      <c r="EZE1" s="1" t="inlineStr">
         <is>
           <t>핵심교과</t>
         </is>
       </c>
-      <c r="EZE1" s="1" t="inlineStr">
+      <c r="EZF1" s="1" t="inlineStr">
         <is>
           <t>agency</t>
         </is>
       </c>
-      <c r="EZF1" s="1" t="inlineStr">
+      <c r="EZG1" s="1" t="inlineStr">
         <is>
           <t>modeling</t>
         </is>
       </c>
-      <c r="EZG1" s="1" t="inlineStr">
+      <c r="EZH1" s="1" t="inlineStr">
         <is>
           <t>민속놀이</t>
         </is>
       </c>
-      <c r="EZH1" s="1" t="inlineStr">
+      <c r="EZI1" s="1" t="inlineStr">
         <is>
           <t>민족</t>
         </is>
       </c>
-      <c r="EZI1" s="1" t="inlineStr">
+      <c r="EZJ1" s="1" t="inlineStr">
         <is>
           <t>운행</t>
         </is>
       </c>
-      <c r="EZJ1" s="1" t="inlineStr">
+      <c r="EZK1" s="1" t="inlineStr">
         <is>
           <t>전통문화</t>
         </is>
       </c>
-      <c r="EZK1" s="1" t="inlineStr">
+      <c r="EZL1" s="1" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="EZL1" s="1" t="inlineStr">
+      <c r="EZM1" s="1" t="inlineStr">
         <is>
           <t>lda</t>
         </is>
       </c>
-      <c r="EZM1" s="1" t="inlineStr">
+      <c r="EZN1" s="1" t="inlineStr">
         <is>
           <t>모델링분석</t>
         </is>
       </c>
-      <c r="EZN1" s="1" t="inlineStr">
+      <c r="EZO1" s="1" t="inlineStr">
         <is>
           <t>att</t>
         </is>
       </c>
-      <c r="EZO1" s="1" t="inlineStr">
+      <c r="EZP1" s="1" t="inlineStr">
         <is>
           <t>fc</t>
         </is>
       </c>
-      <c r="EZP1" s="1" t="inlineStr">
+      <c r="EZQ1" s="1" t="inlineStr">
         <is>
           <t>penj</t>
         </is>
       </c>
-      <c r="EZQ1" s="1" t="inlineStr">
+      <c r="EZR1" s="1" t="inlineStr">
         <is>
           <t>ps</t>
         </is>
       </c>
-      <c r="EZR1" s="1" t="inlineStr">
+      <c r="EZS1" s="1" t="inlineStr">
         <is>
           <t>pu</t>
         </is>
       </c>
-      <c r="EZS1" s="1" t="inlineStr">
+      <c r="EZT1" s="1" t="inlineStr">
         <is>
           <t>si</t>
         </is>
       </c>
-      <c r="EZT1" s="1" t="inlineStr">
+      <c r="EZU1" s="1" t="inlineStr">
         <is>
           <t>sp</t>
         </is>
       </c>
-      <c r="EZU1" s="1" t="inlineStr">
+      <c r="EZV1" s="1" t="inlineStr">
         <is>
           <t>ttrust</t>
         </is>
       </c>
-      <c r="EZV1" s="1" t="inlineStr">
+      <c r="EZW1" s="1" t="inlineStr">
         <is>
           <t>고교학점</t>
         </is>
       </c>
-      <c r="EZW1" s="1" t="inlineStr">
+      <c r="EZX1" s="1" t="inlineStr">
         <is>
           <t>농산어</t>
         </is>
       </c>
-      <c r="EZX1" s="1" t="inlineStr">
+      <c r="EZY1" s="1" t="inlineStr">
         <is>
           <t>문화적</t>
         </is>
       </c>
-      <c r="EZY1" s="1" t="inlineStr">
+      <c r="EZZ1" s="1" t="inlineStr">
         <is>
           <t>보조학습</t>
         </is>
       </c>
-      <c r="EZZ1" s="1" t="inlineStr">
+      <c r="FAA1" s="1" t="inlineStr">
         <is>
           <t>어학</t>
         </is>
       </c>
-      <c r="FAA1" s="1" t="inlineStr">
+      <c r="FAB1" s="1" t="inlineStr">
         <is>
           <t>층화표집</t>
         </is>
       </c>
-      <c r="FAB1" s="1" t="inlineStr">
+      <c r="FAC1" s="1" t="inlineStr">
         <is>
           <t>cnn</t>
         </is>
       </c>
-      <c r="FAC1" s="1" t="inlineStr">
+      <c r="FAD1" s="1" t="inlineStr">
         <is>
           <t>유익</t>
         </is>
       </c>
-      <c r="FAD1" s="1" t="inlineStr">
+      <c r="FAE1" s="1" t="inlineStr">
         <is>
           <t>적합도</t>
         </is>
       </c>
-      <c r="FAE1" s="1" t="inlineStr">
+      <c r="FAF1" s="1" t="inlineStr">
         <is>
           <t>컨볼루션네트워크</t>
         </is>
       </c>
-      <c r="FAF1" s="1" t="inlineStr">
+      <c r="FAG1" s="1" t="inlineStr">
         <is>
           <t>ahp</t>
         </is>
       </c>
-      <c r="FAG1" s="1" t="inlineStr">
+      <c r="FAH1" s="1" t="inlineStr">
         <is>
           <t>고도</t>
         </is>
       </c>
-      <c r="FAH1" s="1" t="inlineStr">
+      <c r="FAI1" s="1" t="inlineStr">
         <is>
           <t>국한</t>
         </is>
       </c>
-      <c r="FAI1" s="1" t="inlineStr">
+      <c r="FAJ1" s="1" t="inlineStr">
         <is>
           <t>패널데이터</t>
         </is>
       </c>
-      <c r="FAJ1" s="1" t="inlineStr">
+      <c r="FAK1" s="1" t="inlineStr">
         <is>
           <t>횡단</t>
         </is>
       </c>
-      <c r="FAK1" s="1" t="inlineStr">
+      <c r="FAL1" s="1" t="inlineStr">
         <is>
           <t>concor</t>
         </is>
       </c>
-      <c r="FAL1" s="1" t="inlineStr">
+      <c r="FAM1" s="1" t="inlineStr">
         <is>
           <t>데이터처리</t>
         </is>
       </c>
-      <c r="FAM1" s="1" t="inlineStr">
+      <c r="FAN1" s="1" t="inlineStr">
         <is>
           <t>마이닝</t>
         </is>
       </c>
-      <c r="FAN1" s="1" t="inlineStr">
+      <c r="FAO1" s="1" t="inlineStr">
         <is>
           <t>필수교과</t>
         </is>
       </c>
-      <c r="FAO1" s="1" t="inlineStr">
+      <c r="FAP1" s="1" t="inlineStr">
         <is>
           <t>변조</t>
         </is>
       </c>
-      <c r="FAP1" s="1" t="inlineStr">
+      <c r="FAQ1" s="1" t="inlineStr">
         <is>
           <t>위변조</t>
         </is>
       </c>
-      <c r="FAQ1" s="1" t="inlineStr">
+      <c r="FAR1" s="1" t="inlineStr">
         <is>
           <t>카드게임</t>
         </is>
       </c>
-      <c r="FAR1" s="1" t="inlineStr">
+      <c r="FAS1" s="1" t="inlineStr">
         <is>
           <t>해시</t>
         </is>
       </c>
-      <c r="FAS1" s="1" t="inlineStr">
+      <c r="FAT1" s="1" t="inlineStr">
         <is>
           <t>화제</t>
         </is>
       </c>
-      <c r="FAT1" s="1" t="inlineStr">
+      <c r="FAU1" s="1" t="inlineStr">
         <is>
           <t>구문</t>
         </is>
       </c>
-      <c r="FAU1" s="1" t="inlineStr">
+      <c r="FAV1" s="1" t="inlineStr">
         <is>
           <t>획득</t>
         </is>
       </c>
-      <c r="FAV1" s="1" t="inlineStr">
+      <c r="FAW1" s="1" t="inlineStr">
         <is>
           <t>bring</t>
         </is>
       </c>
-      <c r="FAW1" s="1" t="inlineStr">
+      <c r="FAX1" s="1" t="inlineStr">
         <is>
           <t>byod</t>
         </is>
       </c>
-      <c r="FAX1" s="1" t="inlineStr">
+      <c r="FAY1" s="1" t="inlineStr">
         <is>
           <t>device</t>
         </is>
       </c>
-      <c r="FAY1" s="1" t="inlineStr">
+      <c r="FAZ1" s="1" t="inlineStr">
         <is>
           <t>devices</t>
         </is>
       </c>
-      <c r="FAZ1" s="1" t="inlineStr">
+      <c r="FBA1" s="1" t="inlineStr">
         <is>
           <t>digital</t>
         </is>
       </c>
-      <c r="FBA1" s="1" t="inlineStr">
+      <c r="FBB1" s="1" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="FBB1" s="1" t="inlineStr">
+      <c r="FBC1" s="1" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="FBC1" s="1" t="inlineStr">
+      <c r="FBD1" s="1" t="inlineStr">
         <is>
           <t>modl</t>
         </is>
       </c>
-      <c r="FBD1" s="1" t="inlineStr">
+      <c r="FBE1" s="1" t="inlineStr">
         <is>
           <t>modli</t>
         </is>
       </c>
-      <c r="FBE1" s="1" t="inlineStr">
+      <c r="FBF1" s="1" t="inlineStr">
         <is>
           <t>own</t>
         </is>
       </c>
-      <c r="FBF1" s="1" t="inlineStr">
+      <c r="FBG1" s="1" t="inlineStr">
         <is>
           <t>ration</t>
         </is>
       </c>
-      <c r="FBG1" s="1" t="inlineStr">
+      <c r="FBH1" s="1" t="inlineStr">
         <is>
           <t>validity</t>
         </is>
       </c>
-      <c r="FBH1" s="1" t="inlineStr">
+      <c r="FBI1" s="1" t="inlineStr">
         <is>
           <t>your</t>
         </is>
       </c>
-      <c r="FBI1" s="1" t="inlineStr">
+      <c r="FBJ1" s="1" t="inlineStr">
         <is>
           <t>내용타당</t>
         </is>
       </c>
-      <c r="FBJ1" s="1" t="inlineStr">
+      <c r="FBK1" s="1" t="inlineStr">
         <is>
           <t>데스크</t>
         </is>
       </c>
-      <c r="FBK1" s="1" t="inlineStr">
+      <c r="FBL1" s="1" t="inlineStr">
         <is>
           <t>체재</t>
         </is>
       </c>
-      <c r="FBL1" s="1" t="inlineStr">
+      <c r="FBM1" s="1" t="inlineStr">
         <is>
           <t>사생</t>
         </is>
       </c>
-      <c r="FBM1" s="1" t="inlineStr">
+      <c r="FBN1" s="1" t="inlineStr">
         <is>
           <t>적외선</t>
         </is>
       </c>
-      <c r="FBN1" s="1" t="inlineStr">
+      <c r="FBO1" s="1" t="inlineStr">
         <is>
           <t>제조자</t>
         </is>
       </c>
-      <c r="FBO1" s="1" t="inlineStr">
+      <c r="FBP1" s="1" t="inlineStr">
         <is>
           <t>활보호</t>
         </is>
       </c>
-      <c r="FBP1" s="1" t="inlineStr">
+      <c r="FBQ1" s="1" t="inlineStr">
         <is>
           <t>부산시</t>
         </is>
       </c>
-      <c r="FBQ1" s="1" t="inlineStr">
+      <c r="FBR1" s="1" t="inlineStr">
         <is>
           <t>abstracting</t>
         </is>
       </c>
-      <c r="FBR1" s="1" t="inlineStr">
+      <c r="FBS1" s="1" t="inlineStr">
         <is>
           <t>정제</t>
         </is>
       </c>
-      <c r="FBS1" s="1" t="inlineStr">
+      <c r="FBT1" s="1" t="inlineStr">
         <is>
           <t>ml</t>
         </is>
       </c>
-      <c r="FBT1" s="1" t="inlineStr">
+      <c r="FBU1" s="1" t="inlineStr">
         <is>
           <t>가공</t>
         </is>
       </c>
-      <c r="FBU1" s="1" t="inlineStr">
+      <c r="FBV1" s="1" t="inlineStr">
         <is>
           <t>신러닝</t>
         </is>
       </c>
-      <c r="FBV1" s="1" t="inlineStr">
+      <c r="FBW1" s="1" t="inlineStr">
         <is>
           <t>초반</t>
         </is>
       </c>
-      <c r="FBW1" s="1" t="inlineStr">
+      <c r="FBX1" s="1" t="inlineStr">
         <is>
           <t>환류</t>
         </is>
       </c>
-      <c r="FBX1" s="1" t="inlineStr">
+      <c r="FBY1" s="1" t="inlineStr">
         <is>
           <t>아래</t>
         </is>
       </c>
-      <c r="FBY1" s="1" t="inlineStr">
+      <c r="FBZ1" s="1" t="inlineStr">
         <is>
           <t>교통</t>
         </is>
       </c>
-      <c r="FBZ1" s="1" t="inlineStr">
+      <c r="FCA1" s="1" t="inlineStr">
         <is>
           <t>내성</t>
         </is>
       </c>
-      <c r="FCA1" s="1" t="inlineStr">
+      <c r="FCB1" s="1" t="inlineStr">
         <is>
           <t>노인</t>
         </is>
       </c>
-      <c r="FCB1" s="1" t="inlineStr">
+      <c r="FCC1" s="1" t="inlineStr">
         <is>
           <t>머신</t>
         </is>
       </c>
-      <c r="FCC1" s="1" t="inlineStr">
+      <c r="FCD1" s="1" t="inlineStr">
         <is>
           <t>모랄</t>
         </is>
       </c>
-      <c r="FCD1" s="1" t="inlineStr">
+      <c r="FCE1" s="1" t="inlineStr">
         <is>
           <t>모랄머신</t>
         </is>
       </c>
-      <c r="FCE1" s="1" t="inlineStr">
+      <c r="FCF1" s="1" t="inlineStr">
         <is>
           <t>몰두</t>
         </is>
       </c>
-      <c r="FCF1" s="1" t="inlineStr">
+      <c r="FCG1" s="1" t="inlineStr">
         <is>
           <t>무인</t>
         </is>
       </c>
-      <c r="FCG1" s="1" t="inlineStr">
+      <c r="FCH1" s="1" t="inlineStr">
         <is>
           <t>보행자우선</t>
         </is>
       </c>
-      <c r="FCH1" s="1" t="inlineStr">
+      <c r="FCI1" s="1" t="inlineStr">
         <is>
           <t>소수</t>
         </is>
       </c>
-      <c r="FCI1" s="1" t="inlineStr">
+      <c r="FCJ1" s="1" t="inlineStr">
         <is>
           <t>스마트폰생활</t>
         </is>
       </c>
-      <c r="FCJ1" s="1" t="inlineStr">
+      <c r="FCK1" s="1" t="inlineStr">
         <is>
           <t>임생활습관</t>
         </is>
       </c>
-      <c r="FCK1" s="1" t="inlineStr">
+      <c r="FCL1" s="1" t="inlineStr">
         <is>
           <t>자각</t>
         </is>
       </c>
-      <c r="FCL1" s="1" t="inlineStr">
+      <c r="FCM1" s="1" t="inlineStr">
         <is>
           <t>자동차</t>
         </is>
       </c>
-      <c r="FCM1" s="1" t="inlineStr">
+      <c r="FCN1" s="1" t="inlineStr">
         <is>
           <t>전분야</t>
         </is>
       </c>
-      <c r="FCN1" s="1" t="inlineStr">
+      <c r="FCO1" s="1" t="inlineStr">
         <is>
           <t>젊은이</t>
         </is>
       </c>
-      <c r="FCO1" s="1" t="inlineStr">
+      <c r="FCP1" s="1" t="inlineStr">
         <is>
           <t>지위</t>
         </is>
       </c>
-      <c r="FCP1" s="1" t="inlineStr">
+      <c r="FCQ1" s="1" t="inlineStr">
         <is>
           <t>지장</t>
         </is>
       </c>
-      <c r="FCQ1" s="1" t="inlineStr">
+      <c r="FCR1" s="1" t="inlineStr">
         <is>
           <t>maccabe</t>
         </is>
       </c>
-      <c r="FCR1" s="1" t="inlineStr">
+      <c r="FCS1" s="1" t="inlineStr">
         <is>
           <t>도착점</t>
         </is>
       </c>
-      <c r="FCS1" s="1" t="inlineStr">
+      <c r="FCT1" s="1" t="inlineStr">
         <is>
           <t>복잡도</t>
         </is>
       </c>
-      <c r="FCT1" s="1" t="inlineStr">
+      <c r="FCU1" s="1" t="inlineStr">
         <is>
           <t>사이클로매틱</t>
         </is>
       </c>
-      <c r="FCU1" s="1" t="inlineStr">
+      <c r="FCV1" s="1" t="inlineStr">
         <is>
           <t>소극</t>
         </is>
       </c>
-      <c r="FCV1" s="1" t="inlineStr">
+      <c r="FCW1" s="1" t="inlineStr">
         <is>
           <t>유효</t>
         </is>
       </c>
-      <c r="FCW1" s="1" t="inlineStr">
+      <c r="FCX1" s="1" t="inlineStr">
         <is>
           <t>조작물</t>
         </is>
       </c>
-      <c r="FCX1" s="1" t="inlineStr">
+      <c r="FCY1" s="1" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
-      <c r="FCY1" s="1" t="inlineStr">
+      <c r="FCZ1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="FCZ1" s="1" t="inlineStr">
+      <c r="FDA1" s="1" t="inlineStr">
         <is>
           <t>universal</t>
         </is>
       </c>
-      <c r="FDA1" s="1" t="inlineStr">
+      <c r="FDB1" s="1" t="inlineStr">
         <is>
           <t>법안</t>
         </is>
       </c>
-      <c r="FDB1" s="1" t="inlineStr">
+      <c r="FDC1" s="1" t="inlineStr">
         <is>
           <t>스킬</t>
         </is>
       </c>
-      <c r="FDC1" s="1" t="inlineStr">
+      <c r="FDD1" s="1" t="inlineStr">
         <is>
           <t>종사</t>
         </is>
       </c>
-      <c r="FDD1" s="1" t="inlineStr">
+      <c r="FDE1" s="1" t="inlineStr">
         <is>
           <t>디지털시민</t>
         </is>
       </c>
-      <c r="FDE1" s="1" t="inlineStr">
+      <c r="FDF1" s="1" t="inlineStr">
         <is>
           <t>사이버보안</t>
         </is>
       </c>
-      <c r="FDF1" s="1" t="inlineStr">
+      <c r="FDG1" s="1" t="inlineStr">
         <is>
           <t>사이버안전</t>
         </is>
       </c>
-      <c r="FDG1" s="1" t="inlineStr">
+      <c r="FDH1" s="1" t="inlineStr">
         <is>
           <t>사이버윤리</t>
         </is>
       </c>
-      <c r="FDH1" s="1" t="inlineStr">
+      <c r="FDI1" s="1" t="inlineStr">
         <is>
           <t>정보교과</t>
         </is>
       </c>
-      <c r="FDI1" s="1" t="inlineStr">
+      <c r="FDJ1" s="1" t="inlineStr">
         <is>
           <t>주요국</t>
         </is>
       </c>
-      <c r="FDJ1" s="1" t="inlineStr">
+      <c r="FDK1" s="1" t="inlineStr">
         <is>
           <t>체계화</t>
         </is>
       </c>
-      <c r="FDK1" s="1" t="inlineStr">
+      <c r="FDL1" s="1" t="inlineStr">
         <is>
           <t>필수교과목화</t>
         </is>
       </c>
-      <c r="FDL1" s="1" t="inlineStr">
+      <c r="FDM1" s="1" t="inlineStr">
         <is>
           <t>호주</t>
         </is>
       </c>
-      <c r="FDM1" s="1" t="inlineStr">
+      <c r="FDN1" s="1" t="inlineStr">
         <is>
           <t>anova</t>
         </is>
       </c>
-      <c r="FDN1" s="1" t="inlineStr">
+      <c r="FDO1" s="1" t="inlineStr">
         <is>
           <t>노복</t>
         </is>
       </c>
-      <c r="FDO1" s="1" t="inlineStr">
+      <c r="FDP1" s="1" t="inlineStr">
         <is>
           <t>어포던스</t>
         </is>
       </c>
-      <c r="FDP1" s="1" t="inlineStr">
+      <c r="FDQ1" s="1" t="inlineStr">
         <is>
           <t>테크노스트레스</t>
         </is>
       </c>
-      <c r="FDQ1" s="1" t="inlineStr">
+      <c r="FDR1" s="1" t="inlineStr">
         <is>
           <t>hadoop</t>
         </is>
       </c>
-      <c r="FDR1" s="1" t="inlineStr">
+      <c r="FDS1" s="1" t="inlineStr">
         <is>
           <t>계정</t>
         </is>
       </c>
-      <c r="FDS1" s="1" t="inlineStr">
+      <c r="FDT1" s="1" t="inlineStr">
         <is>
           <t>비즈니스</t>
         </is>
       </c>
-      <c r="FDT1" s="1" t="inlineStr">
+      <c r="FDU1" s="1" t="inlineStr">
         <is>
           <t>이수학점</t>
         </is>
       </c>
-      <c r="FDU1" s="1" t="inlineStr">
+      <c r="FDV1" s="1" t="inlineStr">
         <is>
           <t>로봇기반</t>
         </is>
       </c>
-      <c r="FDV1" s="1" t="inlineStr">
+      <c r="FDW1" s="1" t="inlineStr">
         <is>
           <t>해결상황</t>
         </is>
       </c>
-      <c r="FDW1" s="1" t="inlineStr">
+      <c r="FDX1" s="1" t="inlineStr">
         <is>
           <t>양상</t>
         </is>
       </c>
-      <c r="FDX1" s="1" t="inlineStr">
+      <c r="FDY1" s="1" t="inlineStr">
         <is>
           <t>인근</t>
         </is>
       </c>
-      <c r="FDY1" s="1" t="inlineStr">
+      <c r="FDZ1" s="1" t="inlineStr">
         <is>
           <t>일일</t>
         </is>
       </c>
-      <c r="FDZ1" s="1" t="inlineStr">
+      <c r="FEA1" s="1" t="inlineStr">
         <is>
           <t>참여시</t>
         </is>
       </c>
-      <c r="FEA1" s="1" t="inlineStr">
+      <c r="FEB1" s="1" t="inlineStr">
         <is>
           <t>충청지</t>
         </is>
       </c>
-      <c r="FEB1" s="1" t="inlineStr">
+      <c r="FEC1" s="1" t="inlineStr">
         <is>
           <t>bebras</t>
         </is>
       </c>
-      <c r="FEC1" s="1" t="inlineStr">
+      <c r="FED1" s="1" t="inlineStr">
         <is>
           <t>challenge</t>
         </is>
       </c>
-      <c r="FED1" s="1" t="inlineStr">
+      <c r="FEE1" s="1" t="inlineStr">
         <is>
           <t>korea</t>
         </is>
       </c>
-      <c r="FEE1" s="1" t="inlineStr">
+      <c r="FEF1" s="1" t="inlineStr">
         <is>
           <t>연합회</t>
         </is>
       </c>
-      <c r="FEF1" s="1" t="inlineStr">
+      <c r="FEG1" s="1" t="inlineStr">
         <is>
           <t>주최</t>
         </is>
       </c>
-      <c r="FEG1" s="1" t="inlineStr">
+      <c r="FEH1" s="1" t="inlineStr">
         <is>
           <t>한국정보과</t>
         </is>
       </c>
-      <c r="FEH1" s="1" t="inlineStr">
+      <c r="FEI1" s="1" t="inlineStr">
         <is>
           <t>quanl</t>
         </is>
       </c>
-      <c r="FEI1" s="1" t="inlineStr">
+      <c r="FEJ1" s="1" t="inlineStr">
         <is>
           <t>동수</t>
         </is>
       </c>
-      <c r="FEJ1" s="1" t="inlineStr">
+      <c r="FEK1" s="1" t="inlineStr">
         <is>
           <t>마중</t>
         </is>
       </c>
-      <c r="FEK1" s="1" t="inlineStr">
+      <c r="FEL1" s="1" t="inlineStr">
         <is>
           <t>검증결과</t>
         </is>
       </c>
-      <c r="FEL1" s="1" t="inlineStr">
+      <c r="FEM1" s="1" t="inlineStr">
         <is>
           <t>협력도</t>
         </is>
       </c>
-      <c r="FEM1" s="1" t="inlineStr">
+      <c r="FEN1" s="1" t="inlineStr">
         <is>
           <t>중등학생</t>
         </is>
       </c>
-      <c r="FEN1" s="1" t="inlineStr">
+      <c r="FEO1" s="1" t="inlineStr">
         <is>
           <t>단독</t>
         </is>
       </c>
-      <c r="FEO1" s="1" t="inlineStr">
+      <c r="FEP1" s="1" t="inlineStr">
         <is>
           <t>비대면</t>
         </is>
       </c>
-      <c r="FEP1" s="1" t="inlineStr">
+      <c r="FEQ1" s="1" t="inlineStr">
         <is>
           <t>저지</t>
         </is>
       </c>
-      <c r="FEQ1" s="1" t="inlineStr">
+      <c r="FER1" s="1" t="inlineStr">
         <is>
           <t>코로나</t>
         </is>
       </c>
-      <c r="FER1" s="1" t="inlineStr">
+      <c r="FES1" s="1" t="inlineStr">
         <is>
           <t>민원</t>
         </is>
       </c>
-      <c r="FES1" s="1" t="inlineStr">
+      <c r="FET1" s="1" t="inlineStr">
         <is>
           <t>운영함</t>
         </is>
       </c>
-      <c r="FET1" s="1" t="inlineStr">
+      <c r="FEU1" s="1" t="inlineStr">
         <is>
           <t>학사</t>
         </is>
       </c>
-      <c r="FEU1" s="1" t="inlineStr">
+      <c r="FEV1" s="1" t="inlineStr">
         <is>
           <t>공청회</t>
         </is>
       </c>
-      <c r="FEV1" s="1" t="inlineStr">
+      <c r="FEW1" s="1" t="inlineStr">
         <is>
           <t>유관</t>
         </is>
       </c>
-      <c r="FEW1" s="1" t="inlineStr">
+      <c r="FEX1" s="1" t="inlineStr">
         <is>
           <t>우뇌</t>
         </is>
       </c>
-      <c r="FEX1" s="1" t="inlineStr">
+      <c r="FEY1" s="1" t="inlineStr">
         <is>
           <t>터틀로봇</t>
         </is>
       </c>
-      <c r="FEY1" s="1" t="inlineStr">
+      <c r="FEZ1" s="1" t="inlineStr">
         <is>
           <t>특강</t>
         </is>
       </c>
-      <c r="FEZ1" s="1" t="inlineStr">
+      <c r="FFA1" s="1" t="inlineStr">
         <is>
           <t>휘트니</t>
         </is>
       </c>
-      <c r="FFA1" s="1" t="inlineStr">
+      <c r="FFB1" s="1" t="inlineStr">
         <is>
           <t>bibliometrix</t>
         </is>
       </c>
-      <c r="FFB1" s="1" t="inlineStr">
+      <c r="FFC1" s="1" t="inlineStr">
         <is>
           <t>wos</t>
         </is>
       </c>
-      <c r="FFC1" s="1" t="inlineStr">
+      <c r="FFD1" s="1" t="inlineStr">
         <is>
           <t>저자</t>
         </is>
       </c>
-      <c r="FFD1" s="1" t="inlineStr">
+      <c r="FFE1" s="1" t="inlineStr">
         <is>
           <t>미교육협회</t>
         </is>
       </c>
-      <c r="FFE1" s="1" t="inlineStr">
+      <c r="FFF1" s="1" t="inlineStr">
         <is>
           <t>평균점수</t>
         </is>
       </c>
-      <c r="FFF1" s="1" t="inlineStr">
+      <c r="FFG1" s="1" t="inlineStr">
         <is>
           <t>전문직</t>
         </is>
       </c>
-      <c r="FFG1" s="1" t="inlineStr">
+      <c r="FFH1" s="1" t="inlineStr">
         <is>
           <t>assure</t>
         </is>
@@ -21540,7 +21545,7 @@
         <v>0.18</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="F2" t="n">
         <v>0.36</v>
@@ -21552,22 +21557,22 @@
         <v>0.18</v>
       </c>
       <c r="I2" t="n">
-        <v>15.18999999999995</v>
+        <v>15.19999999999995</v>
       </c>
       <c r="J2" t="n">
         <v>3.54</v>
       </c>
       <c r="K2" t="n">
-        <v>15.5799999999999</v>
+        <v>15.61999999999989</v>
       </c>
       <c r="L2" t="n">
         <v>3.969999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>7.749999999999995</v>
+        <v>7.759999999999995</v>
       </c>
       <c r="N2" t="n">
-        <v>12.21999999999997</v>
+        <v>12.23999999999997</v>
       </c>
       <c r="O2" t="n">
         <v>4.319999999999999</v>
@@ -21579,7 +21584,7 @@
         <v>0.18</v>
       </c>
       <c r="R2" t="n">
-        <v>16.57999999999999</v>
+        <v>16.58999999999999</v>
       </c>
       <c r="S2" t="n">
         <v>15.35</v>
@@ -21591,91 +21596,91 @@
         <v>0.29</v>
       </c>
       <c r="V2" t="n">
-        <v>8.829999999999993</v>
+        <v>8.849999999999993</v>
       </c>
       <c r="W2" t="n">
         <v>1.36</v>
       </c>
       <c r="X2" t="n">
-        <v>21.13999999999999</v>
+        <v>21.16999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.55</v>
+        <v>4.579999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>30.25999999999998</v>
+        <v>30.31999999999998</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.63999999999994</v>
+        <v>13.65999999999994</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.63999999999993</v>
+        <v>14.64999999999993</v>
       </c>
       <c r="AC2" t="n">
         <v>13.17999999999995</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.26</v>
+        <v>12.27</v>
       </c>
       <c r="AE2" t="n">
         <v>0.27</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.849999999999998</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.459999999999998</v>
+        <v>5.479999999999999</v>
       </c>
       <c r="AH2" t="n">
         <v>1.47</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.069999999999999</v>
+        <v>5.079999999999998</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.03999999999998</v>
+        <v>15.06999999999998</v>
       </c>
       <c r="AL2" t="n">
         <v>7.199999999999999</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.2</v>
+        <v>3.220000000000001</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.739999999999997</v>
+        <v>8.819999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>5.069999999999995</v>
       </c>
       <c r="AP2" t="n">
-        <v>6.819999999999991</v>
+        <v>6.839999999999992</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9.630000000000004</v>
+        <v>9.730000000000004</v>
       </c>
       <c r="AR2" t="n">
-        <v>11.31999999999999</v>
+        <v>11.33999999999999</v>
       </c>
       <c r="AS2" t="n">
-        <v>11.96999999999999</v>
+        <v>11.99999999999999</v>
       </c>
       <c r="AT2" t="n">
         <v>4.619999999999999</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.699999999999998</v>
+        <v>3.709999999999998</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.539999999999999</v>
+        <v>2.56</v>
       </c>
       <c r="AW2" t="n">
         <v>0.5800000000000001</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.530000000000003</v>
+        <v>8.570000000000002</v>
       </c>
       <c r="AY2" t="n">
         <v>5.909999999999998</v>
@@ -21690,16 +21695,16 @@
         <v>16.40999999999996</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.049999999999998</v>
+        <v>4.059999999999998</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.570000000000001</v>
+        <v>3.580000000000001</v>
       </c>
       <c r="BE2" t="n">
-        <v>5.449999999999948</v>
+        <v>5.459999999999948</v>
       </c>
       <c r="BF2" t="n">
-        <v>5.309999999999998</v>
+        <v>5.319999999999998</v>
       </c>
       <c r="BG2" t="n">
         <v>6.430000000000001</v>
@@ -21720,28 +21725,28 @@
         <v>5.360000000000001</v>
       </c>
       <c r="BM2" t="n">
-        <v>11.54999999999995</v>
+        <v>11.58999999999995</v>
       </c>
       <c r="BN2" t="n">
         <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>25.97000000000001</v>
+        <v>25.99000000000001</v>
       </c>
       <c r="BP2" t="n">
         <v>6.809999999999999</v>
       </c>
       <c r="BQ2" t="n">
-        <v>9.409999999999989</v>
+        <v>9.429999999999989</v>
       </c>
       <c r="BR2" t="n">
-        <v>8.989999999999988</v>
+        <v>9.019999999999987</v>
       </c>
       <c r="BS2" t="n">
-        <v>4.359999999999999</v>
+        <v>4.39</v>
       </c>
       <c r="BT2" t="n">
-        <v>7.059999999999997</v>
+        <v>7.069999999999998</v>
       </c>
       <c r="BU2" t="n">
         <v>12.36999999999999</v>
@@ -21750,7 +21755,7 @@
         <v>0.62</v>
       </c>
       <c r="BW2" t="n">
-        <v>15.82999999999994</v>
+        <v>15.86999999999994</v>
       </c>
       <c r="BX2" t="n">
         <v>3.529999999999999</v>
@@ -21765,34 +21770,34 @@
         <v>1.07</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.619999999999999</v>
+        <v>3.609999999999999</v>
       </c>
       <c r="CC2" t="n">
-        <v>6.690000000000001</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="CD2" t="n">
-        <v>8.27999999999999</v>
+        <v>8.30999999999999</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="CF2" t="n">
-        <v>9.439999999999992</v>
+        <v>9.449999999999992</v>
       </c>
       <c r="CG2" t="n">
-        <v>25.59000000000004</v>
+        <v>25.61000000000004</v>
       </c>
       <c r="CH2" t="n">
-        <v>9.009999999999994</v>
+        <v>9.039999999999994</v>
       </c>
       <c r="CI2" t="n">
-        <v>8.52</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="CJ2" t="n">
-        <v>13.09999999999998</v>
+        <v>13.11999999999998</v>
       </c>
       <c r="CK2" t="n">
-        <v>16.99999999999995</v>
+        <v>17.03999999999995</v>
       </c>
       <c r="CL2" t="n">
         <v>8.619999999999999</v>
@@ -21816,7 +21821,7 @@
         <v>5.879999999999997</v>
       </c>
       <c r="CS2" t="n">
-        <v>4.989999999999996</v>
+        <v>5.009999999999995</v>
       </c>
       <c r="CT2" t="n">
         <v>0.11</v>
@@ -21828,7 +21833,7 @@
         <v>5.089999999999999</v>
       </c>
       <c r="CW2" t="n">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="CX2" t="n">
         <v>2.24</v>
@@ -21837,10 +21842,10 @@
         <v>0.73</v>
       </c>
       <c r="CZ2" t="n">
-        <v>3.590000000000001</v>
+        <v>3.620000000000001</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="DB2" t="n">
         <v>0.87</v>
@@ -21852,10 +21857,10 @@
         <v>0.4</v>
       </c>
       <c r="DE2" t="n">
-        <v>5.399999999999999</v>
+        <v>5.409999999999998</v>
       </c>
       <c r="DF2" t="n">
-        <v>17.24</v>
+        <v>17.23</v>
       </c>
       <c r="DG2" t="n">
         <v>6.329999999999997</v>
@@ -21870,7 +21875,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="DK2" t="n">
-        <v>19.4</v>
+        <v>19.42</v>
       </c>
       <c r="DL2" t="n">
         <v>1.52</v>
@@ -21882,7 +21887,7 @@
         <v>0.31</v>
       </c>
       <c r="DO2" t="n">
-        <v>2.210000000000001</v>
+        <v>2.220000000000001</v>
       </c>
       <c r="DP2" t="n">
         <v>2.919999999999999</v>
@@ -21897,16 +21902,16 @@
         <v>0.55</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="DU2" t="n">
         <v>3.449999999999999</v>
       </c>
       <c r="DV2" t="n">
-        <v>4.339999999999999</v>
+        <v>4.35</v>
       </c>
       <c r="DW2" t="n">
-        <v>17.99999999999998</v>
+        <v>18.06999999999999</v>
       </c>
       <c r="DX2" t="n">
         <v>0.09</v>
@@ -21936,13 +21941,13 @@
         <v>0.09</v>
       </c>
       <c r="EG2" t="n">
-        <v>9.079999999999998</v>
+        <v>9.129999999999997</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.450000000000001</v>
+        <v>2.460000000000001</v>
       </c>
       <c r="EI2" t="n">
-        <v>12.20999999999992</v>
+        <v>12.21999999999992</v>
       </c>
       <c r="EJ2" t="n">
         <v>4.099999999999999</v>
@@ -21957,7 +21962,7 @@
         <v>2.38</v>
       </c>
       <c r="EN2" t="n">
-        <v>10.66999999999999</v>
+        <v>10.66999999999998</v>
       </c>
       <c r="EO2" t="n">
         <v>2.89</v>
@@ -21966,7 +21971,7 @@
         <v>9.19999999999998</v>
       </c>
       <c r="EQ2" t="n">
-        <v>7.559999999999997</v>
+        <v>7.569999999999997</v>
       </c>
       <c r="ER2" t="n">
         <v>0.09</v>
@@ -21984,10 +21989,10 @@
         <v>0.09</v>
       </c>
       <c r="EW2" t="n">
-        <v>10.41999999999999</v>
+        <v>10.40999999999999</v>
       </c>
       <c r="EX2" t="n">
-        <v>7.959999999999997</v>
+        <v>7.969999999999997</v>
       </c>
       <c r="EY2" t="n">
         <v>0.09</v>
@@ -21999,7 +22004,7 @@
         <v>7.489999999999999</v>
       </c>
       <c r="FB2" t="n">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="FC2" t="n">
         <v>0.9600000000000001</v>
@@ -22008,31 +22013,31 @@
         <v>0.09</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="FF2" t="n">
         <v>0.09</v>
       </c>
       <c r="FG2" t="n">
-        <v>10.22999999999998</v>
+        <v>10.23999999999998</v>
       </c>
       <c r="FH2" t="n">
-        <v>5.769999999999999</v>
+        <v>5.789999999999998</v>
       </c>
       <c r="FI2" t="n">
-        <v>8.770000000000001</v>
+        <v>8.800000000000004</v>
       </c>
       <c r="FJ2" t="n">
         <v>0.52</v>
       </c>
       <c r="FK2" t="n">
-        <v>4.979999999999998</v>
+        <v>4.969999999999997</v>
       </c>
       <c r="FL2" t="n">
         <v>0.09</v>
       </c>
       <c r="FM2" t="n">
-        <v>11.62</v>
+        <v>11.66</v>
       </c>
       <c r="FN2" t="n">
         <v>0.09</v>
@@ -22047,7 +22052,7 @@
         <v>0.7199999999999999</v>
       </c>
       <c r="FR2" t="n">
-        <v>7.79</v>
+        <v>7.8</v>
       </c>
       <c r="FS2" t="n">
         <v>0.14</v>
@@ -22065,13 +22070,13 @@
         <v>4.710000000000002</v>
       </c>
       <c r="FX2" t="n">
-        <v>6.829999999999926</v>
+        <v>6.839999999999926</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.860000000000001</v>
+        <v>1.870000000000001</v>
       </c>
       <c r="FZ2" t="n">
-        <v>4.799999999999998</v>
+        <v>4.789999999999998</v>
       </c>
       <c r="GA2" t="n">
         <v>0.4</v>
@@ -22080,13 +22085,13 @@
         <v>2.790000000000001</v>
       </c>
       <c r="GC2" t="n">
-        <v>4.779999999999999</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="GD2" t="n">
-        <v>6.729999999999998</v>
+        <v>6.769999999999998</v>
       </c>
       <c r="GE2" t="n">
-        <v>7.209999999999998</v>
+        <v>7.199999999999998</v>
       </c>
       <c r="GF2" t="n">
         <v>2.7</v>
@@ -22095,16 +22100,16 @@
         <v>0.39</v>
       </c>
       <c r="GH2" t="n">
-        <v>15.70999999999997</v>
+        <v>15.71999999999997</v>
       </c>
       <c r="GI2" t="n">
         <v>4.699999999999998</v>
       </c>
       <c r="GJ2" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="GK2" t="n">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="GL2" t="n">
         <v>1.2</v>
@@ -22116,40 +22121,40 @@
         <v>2.47</v>
       </c>
       <c r="GO2" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="GP2" t="n">
         <v>1.58</v>
       </c>
       <c r="GQ2" t="n">
-        <v>6.970000000000002</v>
+        <v>6.980000000000001</v>
       </c>
       <c r="GR2" t="n">
-        <v>4.879999999999999</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="GS2" t="n">
         <v>0.27</v>
       </c>
       <c r="GT2" t="n">
-        <v>4.819999999999999</v>
+        <v>4.799999999999998</v>
       </c>
       <c r="GU2" t="n">
         <v>0.27</v>
       </c>
       <c r="GV2" t="n">
-        <v>2.430000000000001</v>
+        <v>2.46</v>
       </c>
       <c r="GW2" t="n">
         <v>1.32</v>
       </c>
       <c r="GX2" t="n">
-        <v>6.26</v>
+        <v>6.28</v>
       </c>
       <c r="GY2" t="n">
         <v>0.9800000000000001</v>
       </c>
       <c r="GZ2" t="n">
-        <v>4.98</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="HA2" t="n">
         <v>2.670000000000001</v>
@@ -22176,7 +22181,7 @@
         <v>0.14</v>
       </c>
       <c r="HI2" t="n">
-        <v>4.600000000000001</v>
+        <v>4.61</v>
       </c>
       <c r="HJ2" t="n">
         <v>3.809999999999999</v>
@@ -22188,7 +22193,7 @@
         <v>0.71</v>
       </c>
       <c r="HM2" t="n">
-        <v>6.839999999999998</v>
+        <v>6.849999999999998</v>
       </c>
       <c r="HN2" t="n">
         <v>0.72</v>
@@ -22197,25 +22202,25 @@
         <v>0.29</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="HQ2" t="n">
         <v>3.33</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="HS2" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="HT2" t="n">
-        <v>9.439999999999996</v>
+        <v>9.449999999999996</v>
       </c>
       <c r="HU2" t="n">
         <v>1.16</v>
       </c>
       <c r="HV2" t="n">
-        <v>12.67999999999998</v>
+        <v>12.70999999999998</v>
       </c>
       <c r="HW2" t="n">
         <v>2.720000000000001</v>
@@ -22224,25 +22229,25 @@
         <v>1.64</v>
       </c>
       <c r="HY2" t="n">
-        <v>3.960000000000001</v>
+        <v>3.970000000000002</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="IA2" t="n">
-        <v>5.829999999999997</v>
+        <v>5.879999999999997</v>
       </c>
       <c r="IB2" t="n">
         <v>3.549999999999999</v>
       </c>
       <c r="IC2" t="n">
-        <v>9.589999999999991</v>
+        <v>9.61999999999999</v>
       </c>
       <c r="ID2" t="n">
         <v>6.959999999999996</v>
       </c>
       <c r="IE2" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="IF2" t="n">
         <v>1.15</v>
@@ -22272,7 +22277,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="IO2" t="n">
-        <v>5.659999999999995</v>
+        <v>5.669999999999995</v>
       </c>
       <c r="IP2" t="n">
         <v>2.420000000000001</v>
@@ -22284,13 +22289,13 @@
         <v>0.25</v>
       </c>
       <c r="IS2" t="n">
-        <v>4.950000000000001</v>
+        <v>4.94</v>
       </c>
       <c r="IT2" t="n">
         <v>3.469999999999999</v>
       </c>
       <c r="IU2" t="n">
-        <v>16.55999999999998</v>
+        <v>16.58999999999997</v>
       </c>
       <c r="IV2" t="n">
         <v>0.32</v>
@@ -22305,13 +22310,13 @@
         <v>2.46</v>
       </c>
       <c r="IZ2" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="JA2" t="n">
         <v>3.81</v>
       </c>
       <c r="JB2" t="n">
-        <v>2.640000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="JC2" t="n">
         <v>1.750000000000001</v>
@@ -22329,7 +22334,7 @@
         <v>0.17</v>
       </c>
       <c r="JH2" t="n">
-        <v>7.109999999999999</v>
+        <v>7.119999999999998</v>
       </c>
       <c r="JI2" t="n">
         <v>0.28</v>
@@ -22365,13 +22370,13 @@
         <v>0.43</v>
       </c>
       <c r="JT2" t="n">
-        <v>2.010000000000001</v>
+        <v>2.030000000000001</v>
       </c>
       <c r="JU2" t="n">
         <v>0.33</v>
       </c>
       <c r="JV2" t="n">
-        <v>7.879999999999997</v>
+        <v>7.869999999999997</v>
       </c>
       <c r="JW2" t="n">
         <v>0.42</v>
@@ -22401,10 +22406,10 @@
         <v>4.779999999999998</v>
       </c>
       <c r="KF2" t="n">
-        <v>16.21999999999998</v>
+        <v>16.27999999999998</v>
       </c>
       <c r="KG2" t="n">
-        <v>10.11999999999999</v>
+        <v>10.10999999999999</v>
       </c>
       <c r="KH2" t="n">
         <v>0.17</v>
@@ -22416,10 +22421,10 @@
         <v>0.25</v>
       </c>
       <c r="KK2" t="n">
-        <v>12.27</v>
+        <v>12.24</v>
       </c>
       <c r="KL2" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="KM2" t="n">
         <v>0.09</v>
@@ -22443,7 +22448,7 @@
         <v>2.96</v>
       </c>
       <c r="KT2" t="n">
-        <v>5.999999999999994</v>
+        <v>6.009999999999994</v>
       </c>
       <c r="KU2" t="n">
         <v>0.72</v>
@@ -22470,7 +22475,7 @@
         <v>0.17</v>
       </c>
       <c r="LC2" t="n">
-        <v>3.45</v>
+        <v>3.469999999999999</v>
       </c>
       <c r="LD2" t="n">
         <v>3.01</v>
@@ -22479,7 +22484,7 @@
         <v>0.65</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="LG2" t="n">
         <v>3.57</v>
@@ -22488,7 +22493,7 @@
         <v>1.22</v>
       </c>
       <c r="LI2" t="n">
-        <v>8.009999999999994</v>
+        <v>7.999999999999994</v>
       </c>
       <c r="LJ2" t="n">
         <v>1.08</v>
@@ -22500,7 +22505,7 @@
         <v>2.250000000000001</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="LN2" t="n">
         <v>0.6000000000000001</v>
@@ -22527,7 +22532,7 @@
         <v>3.82</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="LW2" t="n">
         <v>1.18</v>
@@ -22560,7 +22565,7 @@
         <v>0.17</v>
       </c>
       <c r="MG2" t="n">
-        <v>2.86</v>
+        <v>2.850000000000001</v>
       </c>
       <c r="MH2" t="n">
         <v>2.92</v>
@@ -22575,13 +22580,13 @@
         <v>3.889999999999998</v>
       </c>
       <c r="ML2" t="n">
-        <v>2.240000000000001</v>
+        <v>2.23</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="MN2" t="n">
-        <v>3.96</v>
+        <v>3.979999999999999</v>
       </c>
       <c r="MO2" t="n">
         <v>2.47</v>
@@ -22590,13 +22595,13 @@
         <v>2.91</v>
       </c>
       <c r="MQ2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="MR2" t="n">
         <v>3.220000000000001</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.61</v>
+        <v>2.620000000000001</v>
       </c>
       <c r="MT2" t="n">
         <v>0.78</v>
@@ -22629,10 +22634,10 @@
         <v>1.02</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.890000000000001</v>
+        <v>2.900000000000001</v>
       </c>
       <c r="NE2" t="n">
-        <v>8.159999999999998</v>
+        <v>8.189999999999998</v>
       </c>
       <c r="NF2" t="n">
         <v>1.33</v>
@@ -22641,10 +22646,10 @@
         <v>4.859999999999999</v>
       </c>
       <c r="NH2" t="n">
-        <v>10.84999999999999</v>
+        <v>10.86999999999999</v>
       </c>
       <c r="NI2" t="n">
-        <v>7.299999999999996</v>
+        <v>7.339999999999997</v>
       </c>
       <c r="NJ2" t="n">
         <v>1.61</v>
@@ -22662,7 +22667,7 @@
         <v>0.2</v>
       </c>
       <c r="NO2" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="NP2" t="n">
         <v>4.78</v>
@@ -22716,16 +22721,16 @@
         <v>1.25</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.590000000000001</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="OI2" t="n">
         <v>0.14</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1.610000000000001</v>
+        <v>1.620000000000001</v>
       </c>
       <c r="OK2" t="n">
         <v>2.29</v>
@@ -22755,10 +22760,10 @@
         <v>2.11</v>
       </c>
       <c r="OT2" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="OU2" t="n">
-        <v>3.28</v>
+        <v>3.329999999999999</v>
       </c>
       <c r="OV2" t="n">
         <v>0.6200000000000001</v>
@@ -22791,19 +22796,19 @@
         <v>0.18</v>
       </c>
       <c r="PF2" t="n">
-        <v>8.269999999999996</v>
+        <v>8.299999999999995</v>
       </c>
       <c r="PG2" t="n">
         <v>4.21</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="PI2" t="n">
         <v>1.42</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="PK2" t="n">
         <v>0.29</v>
@@ -22824,7 +22829,7 @@
         <v>0.13</v>
       </c>
       <c r="PQ2" t="n">
-        <v>7.7</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="PR2" t="n">
         <v>7.559999999999999</v>
@@ -22842,7 +22847,7 @@
         <v>0.13</v>
       </c>
       <c r="PW2" t="n">
-        <v>10.65999999999999</v>
+        <v>10.67999999999999</v>
       </c>
       <c r="PX2" t="n">
         <v>2.14</v>
@@ -22917,10 +22922,10 @@
         <v>1.11</v>
       </c>
       <c r="QV2" t="n">
-        <v>5.549999999999999</v>
+        <v>5.559999999999999</v>
       </c>
       <c r="QW2" t="n">
-        <v>3.460000000000001</v>
+        <v>3.490000000000001</v>
       </c>
       <c r="QX2" t="n">
         <v>0.12</v>
@@ -22938,7 +22943,7 @@
         <v>0.12</v>
       </c>
       <c r="RC2" t="n">
-        <v>5.069999999999999</v>
+        <v>5.08</v>
       </c>
       <c r="RD2" t="n">
         <v>2.23</v>
@@ -23067,13 +23072,13 @@
         <v>0.88</v>
       </c>
       <c r="ST2" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="SU2" t="n">
         <v>5.989999999999998</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.9700000000000001</v>
       </c>
       <c r="SW2" t="n">
         <v>0.44</v>
@@ -23091,13 +23096,13 @@
         <v>0.13</v>
       </c>
       <c r="TB2" t="n">
-        <v>2.140000000000001</v>
+        <v>2.150000000000001</v>
       </c>
       <c r="TC2" t="n">
         <v>2.380000000000001</v>
       </c>
       <c r="TD2" t="n">
-        <v>8.239999999999998</v>
+        <v>8.229999999999999</v>
       </c>
       <c r="TE2" t="n">
         <v>0.25</v>
@@ -23106,7 +23111,7 @@
         <v>0.13</v>
       </c>
       <c r="TG2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="TH2" t="n">
         <v>0.26</v>
@@ -23121,7 +23126,7 @@
         <v>2.29</v>
       </c>
       <c r="TL2" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="TM2" t="n">
         <v>0.13</v>
@@ -23136,10 +23141,10 @@
         <v>0.27</v>
       </c>
       <c r="TQ2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="TR2" t="n">
-        <v>3.549999999999998</v>
+        <v>3.559999999999999</v>
       </c>
       <c r="TS2" t="n">
         <v>0.46</v>
@@ -23151,13 +23156,13 @@
         <v>0.13</v>
       </c>
       <c r="TV2" t="n">
-        <v>2.500000000000001</v>
+        <v>2.510000000000001</v>
       </c>
       <c r="TW2" t="n">
         <v>0.51</v>
       </c>
       <c r="TX2" t="n">
-        <v>7.439999999999999</v>
+        <v>7.499999999999998</v>
       </c>
       <c r="TY2" t="n">
         <v>0.2</v>
@@ -23172,7 +23177,7 @@
         <v>0.65</v>
       </c>
       <c r="UC2" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="UD2" t="n">
         <v>5.46</v>
@@ -23193,7 +23198,7 @@
         <v>1.02</v>
       </c>
       <c r="UJ2" t="n">
-        <v>9.500000000000004</v>
+        <v>9.520000000000003</v>
       </c>
       <c r="UK2" t="n">
         <v>1.42</v>
@@ -23202,13 +23207,13 @@
         <v>0.09</v>
       </c>
       <c r="UM2" t="n">
-        <v>0.8700000000000002</v>
+        <v>0.8800000000000002</v>
       </c>
       <c r="UN2" t="n">
         <v>0.91</v>
       </c>
       <c r="UO2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="UP2" t="n">
         <v>3.21</v>
@@ -23223,19 +23228,19 @@
         <v>0.52</v>
       </c>
       <c r="UT2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="UU2" t="n">
         <v>0.24</v>
       </c>
       <c r="UV2" t="n">
-        <v>2.760000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="UW2" t="n">
         <v>0.8</v>
       </c>
       <c r="UX2" t="n">
-        <v>4.639999999999998</v>
+        <v>4.649999999999998</v>
       </c>
       <c r="UY2" t="n">
         <v>0.2</v>
@@ -23244,7 +23249,7 @@
         <v>0.38</v>
       </c>
       <c r="VA2" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="VB2" t="n">
         <v>3.119999999999999</v>
@@ -23304,7 +23309,7 @@
         <v>10.74</v>
       </c>
       <c r="VU2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="VV2" t="n">
         <v>0.72</v>
@@ -23334,7 +23339,7 @@
         <v>0.08</v>
       </c>
       <c r="WE2" t="n">
-        <v>8.32999999999997</v>
+        <v>8.349999999999969</v>
       </c>
       <c r="WF2" t="n">
         <v>1.99</v>
@@ -23349,7 +23354,7 @@
         <v>1.15</v>
       </c>
       <c r="WJ2" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="WK2" t="n">
         <v>1.43</v>
@@ -23382,7 +23387,7 @@
         <v>1.64</v>
       </c>
       <c r="WU2" t="n">
-        <v>1.410000000000001</v>
+        <v>1.420000000000001</v>
       </c>
       <c r="WV2" t="n">
         <v>0.16</v>
@@ -23394,7 +23399,7 @@
         <v>1.830000000000001</v>
       </c>
       <c r="WY2" t="n">
-        <v>3.589999999999999</v>
+        <v>3.58</v>
       </c>
       <c r="WZ2" t="n">
         <v>0.4</v>
@@ -23484,7 +23489,7 @@
         <v>2.69</v>
       </c>
       <c r="YC2" t="n">
-        <v>2.730000000000001</v>
+        <v>2.740000000000001</v>
       </c>
       <c r="YD2" t="n">
         <v>1.39</v>
@@ -23496,7 +23501,7 @@
         <v>0.19</v>
       </c>
       <c r="YG2" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="YH2" t="n">
         <v>0.1</v>
@@ -23505,7 +23510,7 @@
         <v>0.1</v>
       </c>
       <c r="YJ2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="YK2" t="n">
         <v>0.1</v>
@@ -23556,7 +23561,7 @@
         <v>0.24</v>
       </c>
       <c r="ZA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ZB2" t="n">
         <v>0.32</v>
@@ -23565,7 +23570,7 @@
         <v>0.21</v>
       </c>
       <c r="ZD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ZE2" t="n">
         <v>0.25</v>
@@ -23574,22 +23579,22 @@
         <v>0.25</v>
       </c>
       <c r="ZG2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="ZH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ZI2" t="n">
         <v>0.19</v>
       </c>
       <c r="ZJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ZK2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="ZL2" t="n">
-        <v>16.08</v>
+        <v>16.09</v>
       </c>
       <c r="ZM2" t="n">
         <v>0.89</v>
@@ -23598,7 +23603,7 @@
         <v>0.83</v>
       </c>
       <c r="ZO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ZP2" t="n">
         <v>2.37</v>
@@ -23610,7 +23615,7 @@
         <v>3.39</v>
       </c>
       <c r="ZS2" t="n">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="ZT2" t="n">
         <v>2.760000000000001</v>
@@ -23631,16 +23636,16 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>4.670000000000002</v>
+        <v>4.680000000000001</v>
       </c>
       <c r="AAA2" t="n">
-        <v>9.279999999999999</v>
+        <v>3.14</v>
       </c>
       <c r="AAB2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AAC2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="AAD2" t="n">
         <v>0.26</v>
@@ -23682,7 +23687,7 @@
         <v>0.29</v>
       </c>
       <c r="AAQ2" t="n">
-        <v>7.399999999999999</v>
+        <v>7.409999999999998</v>
       </c>
       <c r="AAR2" t="n">
         <v>0.47</v>
@@ -23694,7 +23699,7 @@
         <v>0.32</v>
       </c>
       <c r="AAU2" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="AAV2" t="n">
         <v>0.09</v>
@@ -23721,7 +23726,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="ABD2" t="n">
-        <v>4.169999999999999</v>
+        <v>4.179999999999999</v>
       </c>
       <c r="ABE2" t="n">
         <v>2.46</v>
@@ -23778,13 +23783,13 @@
         <v>1.45</v>
       </c>
       <c r="ABW2" t="n">
-        <v>1.880000000000001</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="ABX2" t="n">
         <v>4.21</v>
       </c>
       <c r="ABY2" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="ABZ2" t="n">
         <v>6.03</v>
@@ -23817,7 +23822,7 @@
         <v>0.11</v>
       </c>
       <c r="ACJ2" t="n">
-        <v>5.329999999999999</v>
+        <v>5.39</v>
       </c>
       <c r="ACK2" t="n">
         <v>10.33</v>
@@ -23829,7 +23834,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="ACN2" t="n">
-        <v>4.859999999999997</v>
+        <v>4.849999999999997</v>
       </c>
       <c r="ACO2" t="n">
         <v>1.09</v>
@@ -23856,13 +23861,13 @@
         <v>1.28</v>
       </c>
       <c r="ACW2" t="n">
-        <v>14.36</v>
+        <v>14.37</v>
       </c>
       <c r="ACX2" t="n">
         <v>0.55</v>
       </c>
       <c r="ACY2" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="ACZ2" t="n">
         <v>0.16</v>
@@ -23877,7 +23882,7 @@
         <v>2.42</v>
       </c>
       <c r="ADD2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="ADE2" t="n">
         <v>0.16</v>
@@ -23901,7 +23906,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="ADL2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="ADM2" t="n">
         <v>0.5</v>
@@ -23922,7 +23927,7 @@
         <v>28.9</v>
       </c>
       <c r="ADS2" t="n">
-        <v>1.980000000000001</v>
+        <v>1.990000000000001</v>
       </c>
       <c r="ADT2" t="n">
         <v>0.13</v>
@@ -23943,7 +23948,7 @@
         <v>2.57</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AEA2" t="n">
         <v>0.35</v>
@@ -23958,7 +23963,7 @@
         <v>0.31</v>
       </c>
       <c r="AEE2" t="n">
-        <v>0.7100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AEF2" t="n">
         <v>0.16</v>
@@ -24045,10 +24050,10 @@
         <v>2.450000000000001</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AFI2" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AFJ2" t="n">
         <v>0.18</v>
@@ -24057,13 +24062,13 @@
         <v>1.53</v>
       </c>
       <c r="AFL2" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="AFM2" t="n">
         <v>0.18</v>
       </c>
       <c r="AFN2" t="n">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="AFO2" t="n">
         <v>0.6900000000000001</v>
@@ -24072,19 +24077,19 @@
         <v>0.72</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="AFR2" t="n">
         <v>3.160000000000001</v>
       </c>
       <c r="AFS2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AFT2" t="n">
         <v>0.46</v>
       </c>
       <c r="AFU2" t="n">
-        <v>4.27</v>
+        <v>4.28</v>
       </c>
       <c r="AFV2" t="n">
         <v>0.17</v>
@@ -24102,7 +24107,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AGA2" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AGB2" t="n">
         <v>1.730000000000001</v>
@@ -24132,7 +24137,7 @@
         <v>3.05</v>
       </c>
       <c r="AGK2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AGL2" t="n">
         <v>1.2</v>
@@ -24147,7 +24152,7 @@
         <v>0.38</v>
       </c>
       <c r="AGP2" t="n">
-        <v>6.48</v>
+        <v>6.49</v>
       </c>
       <c r="AGQ2" t="n">
         <v>0.08</v>
@@ -24156,7 +24161,7 @@
         <v>0.08</v>
       </c>
       <c r="AGS2" t="n">
-        <v>1.840000000000001</v>
+        <v>1.850000000000001</v>
       </c>
       <c r="AGT2" t="n">
         <v>3.15</v>
@@ -24183,7 +24188,7 @@
         <v>1.680000000000001</v>
       </c>
       <c r="AHB2" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="AHC2" t="n">
         <v>0.26</v>
@@ -24201,7 +24206,7 @@
         <v>0.08</v>
       </c>
       <c r="AHH2" t="n">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="AHI2" t="n">
         <v>0.08</v>
@@ -24216,7 +24221,7 @@
         <v>0.12</v>
       </c>
       <c r="AHM2" t="n">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="AHN2" t="n">
         <v>1.2</v>
@@ -24231,7 +24236,7 @@
         <v>0.23</v>
       </c>
       <c r="AHR2" t="n">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="AHS2" t="n">
         <v>2.57</v>
@@ -24255,7 +24260,7 @@
         <v>0.4</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="AIA2" t="n">
         <v>0.21</v>
@@ -24303,7 +24308,7 @@
         <v>0.62</v>
       </c>
       <c r="AIP2" t="n">
-        <v>4.849999999999998</v>
+        <v>4.899999999999998</v>
       </c>
       <c r="AIQ2" t="n">
         <v>0.47</v>
@@ -24312,7 +24317,7 @@
         <v>1.85</v>
       </c>
       <c r="AIS2" t="n">
-        <v>4.309999999999997</v>
+        <v>4.319999999999997</v>
       </c>
       <c r="AIT2" t="n">
         <v>0.99</v>
@@ -24330,7 +24335,7 @@
         <v>0.93</v>
       </c>
       <c r="AIY2" t="n">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="AIZ2" t="n">
         <v>2.500000000000001</v>
@@ -24351,7 +24356,7 @@
         <v>0.33</v>
       </c>
       <c r="AJF2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AJG2" t="n">
         <v>0.34</v>
@@ -24369,7 +24374,7 @@
         <v>0.33</v>
       </c>
       <c r="AJL2" t="n">
-        <v>3.459999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="AJM2" t="n">
         <v>7.659999999999997</v>
@@ -24378,7 +24383,7 @@
         <v>0.67</v>
       </c>
       <c r="AJO2" t="n">
-        <v>9.429999999999998</v>
+        <v>9.44</v>
       </c>
       <c r="AJP2" t="n">
         <v>0.15</v>
@@ -24498,7 +24503,7 @@
         <v>0.1</v>
       </c>
       <c r="ALC2" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="ALD2" t="n">
         <v>0.8300000000000001</v>
@@ -24513,13 +24518,13 @@
         <v>0.51</v>
       </c>
       <c r="ALH2" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="ALI2" t="n">
         <v>2.75</v>
       </c>
       <c r="ALJ2" t="n">
-        <v>3.200000000000001</v>
+        <v>3.19</v>
       </c>
       <c r="ALK2" t="n">
         <v>1.45</v>
@@ -24534,7 +24539,7 @@
         <v>0.09</v>
       </c>
       <c r="ALO2" t="n">
-        <v>5.459999999999999</v>
+        <v>5.469999999999999</v>
       </c>
       <c r="ALP2" t="n">
         <v>0.18</v>
@@ -24549,7 +24554,7 @@
         <v>1.15</v>
       </c>
       <c r="ALT2" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="ALU2" t="n">
         <v>0.24</v>
@@ -24609,7 +24614,7 @@
         <v>0.12</v>
       </c>
       <c r="AMN2" t="n">
-        <v>1.99</v>
+        <v>1.980000000000001</v>
       </c>
       <c r="AMO2" t="n">
         <v>1.06</v>
@@ -24639,10 +24644,10 @@
         <v>1.84</v>
       </c>
       <c r="AMX2" t="n">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
       <c r="AMY2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AMZ2" t="n">
         <v>0.4</v>
@@ -24690,7 +24695,7 @@
         <v>0.41</v>
       </c>
       <c r="ANO2" t="n">
-        <v>2.490000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="ANP2" t="n">
         <v>2.32</v>
@@ -24759,7 +24764,7 @@
         <v>0.27</v>
       </c>
       <c r="AOL2" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AOM2" t="n">
         <v>0.42</v>
@@ -24768,7 +24773,7 @@
         <v>1.1</v>
       </c>
       <c r="AOO2" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AOP2" t="n">
         <v>0.29</v>
@@ -24810,7 +24815,7 @@
         <v>3.88</v>
       </c>
       <c r="APC2" t="n">
-        <v>8.219999999999999</v>
+        <v>8.189999999999998</v>
       </c>
       <c r="APD2" t="n">
         <v>0.88</v>
@@ -24834,7 +24839,7 @@
         <v>3.04</v>
       </c>
       <c r="APK2" t="n">
-        <v>3.799999999999999</v>
+        <v>3.819999999999999</v>
       </c>
       <c r="APL2" t="n">
         <v>0.11</v>
@@ -24843,7 +24848,7 @@
         <v>1.3</v>
       </c>
       <c r="APN2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="APO2" t="n">
         <v>0.11</v>
@@ -24861,7 +24866,7 @@
         <v>0.17</v>
       </c>
       <c r="APT2" t="n">
-        <v>3.669999999999999</v>
+        <v>3.679999999999999</v>
       </c>
       <c r="APU2" t="n">
         <v>0.79</v>
@@ -24906,7 +24911,7 @@
         <v>1.05</v>
       </c>
       <c r="AQI2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AQJ2" t="n">
         <v>0.1</v>
@@ -24975,7 +24980,7 @@
         <v>0.4</v>
       </c>
       <c r="ARF2" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="ARG2" t="n">
         <v>0.23</v>
@@ -25005,7 +25010,7 @@
         <v>0.49</v>
       </c>
       <c r="ARP2" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="ARQ2" t="n">
         <v>2.34</v>
@@ -25014,13 +25019,13 @@
         <v>0.65</v>
       </c>
       <c r="ARS2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="ART2" t="n">
         <v>0.44</v>
       </c>
       <c r="ARU2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="ARV2" t="n">
         <v>1.43</v>
@@ -25029,13 +25034,13 @@
         <v>0.28</v>
       </c>
       <c r="ARX2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="ARY2" t="n">
         <v>0.11</v>
       </c>
       <c r="ARZ2" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="ASA2" t="n">
         <v>0.78</v>
@@ -25071,7 +25076,7 @@
         <v>1.6</v>
       </c>
       <c r="ASL2" t="n">
-        <v>8.330000000000002</v>
+        <v>8.360000000000001</v>
       </c>
       <c r="ASM2" t="n">
         <v>1.38</v>
@@ -25092,10 +25097,10 @@
         <v>0.12</v>
       </c>
       <c r="ASS2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AST2" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="ASU2" t="n">
         <v>1.04</v>
@@ -25128,7 +25133,7 @@
         <v>1.18</v>
       </c>
       <c r="ATE2" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="ATF2" t="n">
         <v>0.21</v>
@@ -25137,7 +25142,7 @@
         <v>0.11</v>
       </c>
       <c r="ATH2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="ATI2" t="n">
         <v>1.43</v>
@@ -25176,7 +25181,7 @@
         <v>0.19</v>
       </c>
       <c r="ATU2" t="n">
-        <v>4.56</v>
+        <v>4.590000000000001</v>
       </c>
       <c r="ATV2" t="n">
         <v>0.37</v>
@@ -25209,7 +25214,7 @@
         <v>0.09</v>
       </c>
       <c r="AUF2" t="n">
-        <v>3.749999999999999</v>
+        <v>3.759999999999998</v>
       </c>
       <c r="AUG2" t="n">
         <v>0.21</v>
@@ -25233,7 +25238,7 @@
         <v>0.09</v>
       </c>
       <c r="AUN2" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AUO2" t="n">
         <v>0.09</v>
@@ -25260,7 +25265,7 @@
         <v>0.9</v>
       </c>
       <c r="AUW2" t="n">
-        <v>9.949999999999999</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="AUX2" t="n">
         <v>0.6900000000000002</v>
@@ -25290,7 +25295,7 @@
         <v>0.15</v>
       </c>
       <c r="AVG2" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="AVH2" t="n">
         <v>0.15</v>
@@ -25320,7 +25325,7 @@
         <v>0.15</v>
       </c>
       <c r="AVQ2" t="n">
-        <v>2.240000000000001</v>
+        <v>2.250000000000001</v>
       </c>
       <c r="AVR2" t="n">
         <v>0.58</v>
@@ -25365,7 +25370,7 @@
         <v>0.6299999999999999</v>
       </c>
       <c r="AWF2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AWG2" t="n">
         <v>0.2</v>
@@ -25401,13 +25406,13 @@
         <v>0.79</v>
       </c>
       <c r="AWR2" t="n">
-        <v>0.76</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="AWS2" t="n">
         <v>1.2</v>
       </c>
       <c r="AWT2" t="n">
-        <v>10.17</v>
+        <v>10.18000000000001</v>
       </c>
       <c r="AWU2" t="n">
         <v>0.8099999999999999</v>
@@ -25473,7 +25478,7 @@
         <v>0.11</v>
       </c>
       <c r="AXP2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AXQ2" t="n">
         <v>0.11</v>
@@ -25536,13 +25541,13 @@
         <v>0.13</v>
       </c>
       <c r="AYK2" t="n">
-        <v>0.86</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AYL2" t="n">
         <v>0.5900000000000001</v>
       </c>
       <c r="AYM2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AYN2" t="n">
         <v>0.11</v>
@@ -25551,7 +25556,7 @@
         <v>1.27</v>
       </c>
       <c r="AYP2" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="AYQ2" t="n">
         <v>0.79</v>
@@ -25560,7 +25565,7 @@
         <v>0.19</v>
       </c>
       <c r="AYS2" t="n">
-        <v>3.399999999999999</v>
+        <v>3.41</v>
       </c>
       <c r="AYT2" t="n">
         <v>0.18</v>
@@ -25587,7 +25592,7 @@
         <v>0.23</v>
       </c>
       <c r="AZB2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AZC2" t="n">
         <v>0.32</v>
@@ -25701,7 +25706,7 @@
         <v>2.78</v>
       </c>
       <c r="BAN2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="BAO2" t="n">
         <v>0.27</v>
@@ -25740,7 +25745,7 @@
         <v>0.25</v>
       </c>
       <c r="BBA2" t="n">
-        <v>4.48</v>
+        <v>4.510000000000001</v>
       </c>
       <c r="BBB2" t="n">
         <v>1.63</v>
@@ -25887,7 +25892,7 @@
         <v>0.12</v>
       </c>
       <c r="BCX2" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="BCY2" t="n">
         <v>0.12</v>
@@ -25929,7 +25934,7 @@
         <v>0.26</v>
       </c>
       <c r="BDL2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="BDM2" t="n">
         <v>0.29</v>
@@ -25953,7 +25958,7 @@
         <v>0.26</v>
       </c>
       <c r="BDT2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="BDU2" t="n">
         <v>1.54</v>
@@ -26019,7 +26024,7 @@
         <v>0.34</v>
       </c>
       <c r="BEP2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="BEQ2" t="n">
         <v>0.27</v>
@@ -26055,7 +26060,7 @@
         <v>0.34</v>
       </c>
       <c r="BFB2" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BFC2" t="n">
         <v>0.12</v>
@@ -26085,7 +26090,7 @@
         <v>0.48</v>
       </c>
       <c r="BFL2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="BFM2" t="n">
         <v>0.12</v>
@@ -26184,7 +26189,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="BGS2" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="BGT2" t="n">
         <v>0.47</v>
@@ -26262,7 +26267,7 @@
         <v>0.97</v>
       </c>
       <c r="BHS2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="BHT2" t="n">
         <v>0.34</v>
@@ -26325,7 +26330,7 @@
         <v>1.49</v>
       </c>
       <c r="BIN2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="BIO2" t="n">
         <v>3.109999999999999</v>
@@ -26337,7 +26342,7 @@
         <v>0.21</v>
       </c>
       <c r="BIR2" t="n">
-        <v>4.85</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="BIS2" t="n">
         <v>0.12</v>
@@ -26472,7 +26477,7 @@
         <v>0.16</v>
       </c>
       <c r="BKK2" t="n">
-        <v>1.56</v>
+        <v>1.580000000000001</v>
       </c>
       <c r="BKL2" t="n">
         <v>0.63</v>
@@ -26481,10 +26486,10 @@
         <v>1.95</v>
       </c>
       <c r="BKN2" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="BKO2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BKP2" t="n">
         <v>0.47</v>
@@ -26547,7 +26552,7 @@
         <v>0.13</v>
       </c>
       <c r="BLJ2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="BLK2" t="n">
         <v>0.52</v>
@@ -26604,7 +26609,7 @@
         <v>0.08</v>
       </c>
       <c r="BMC2" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="BMD2" t="n">
         <v>0.08</v>
@@ -26628,7 +26633,7 @@
         <v>0.23</v>
       </c>
       <c r="BMK2" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="BML2" t="n">
         <v>0.96</v>
@@ -26733,7 +26738,7 @@
         <v>0.17</v>
       </c>
       <c r="BNT2" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="BNU2" t="n">
         <v>0.28</v>
@@ -26805,7 +26810,7 @@
         <v>0.39</v>
       </c>
       <c r="BOR2" t="n">
-        <v>7.359999999999999</v>
+        <v>7.369999999999999</v>
       </c>
       <c r="BOS2" t="n">
         <v>0.1</v>
@@ -27054,7 +27059,7 @@
         <v>0.52</v>
       </c>
       <c r="BRW2" t="n">
-        <v>0.8199999999999998</v>
+        <v>0.8299999999999997</v>
       </c>
       <c r="BRX2" t="n">
         <v>0.09</v>
@@ -27066,7 +27071,7 @@
         <v>0.12</v>
       </c>
       <c r="BSA2" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="BSB2" t="n">
         <v>0.12</v>
@@ -27087,7 +27092,7 @@
         <v>0.12</v>
       </c>
       <c r="BSH2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BSI2" t="n">
         <v>0.13</v>
@@ -27114,7 +27119,7 @@
         <v>0.17</v>
       </c>
       <c r="BSQ2" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BSR2" t="n">
         <v>0.34</v>
@@ -27177,7 +27182,7 @@
         <v>0.14</v>
       </c>
       <c r="BTL2" t="n">
-        <v>0.7399999999999999</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="BTM2" t="n">
         <v>0.24</v>
@@ -27303,7 +27308,7 @@
         <v>0.24</v>
       </c>
       <c r="BVB2" t="n">
-        <v>0.62</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="BVC2" t="n">
         <v>0.53</v>
@@ -27321,7 +27326,7 @@
         <v>0.11</v>
       </c>
       <c r="BVH2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="BVI2" t="n">
         <v>0.11</v>
@@ -27345,7 +27350,7 @@
         <v>0.09</v>
       </c>
       <c r="BVP2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="BVQ2" t="n">
         <v>0.39</v>
@@ -27357,7 +27362,7 @@
         <v>0.36</v>
       </c>
       <c r="BVT2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="BVU2" t="n">
         <v>0.3</v>
@@ -27408,7 +27413,7 @@
         <v>0.15</v>
       </c>
       <c r="BWK2" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="BWL2" t="n">
         <v>0.21</v>
@@ -27711,7 +27716,7 @@
         <v>0.16</v>
       </c>
       <c r="CAH2" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="CAI2" t="n">
         <v>0.16</v>
@@ -27783,7 +27788,7 @@
         <v>0.16</v>
       </c>
       <c r="CBF2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="CBG2" t="n">
         <v>0.11</v>
@@ -27813,7 +27818,7 @@
         <v>0.14</v>
       </c>
       <c r="CBP2" t="n">
-        <v>1.640000000000001</v>
+        <v>1.660000000000001</v>
       </c>
       <c r="CBQ2" t="n">
         <v>0.09</v>
@@ -27858,7 +27863,7 @@
         <v>0.09</v>
       </c>
       <c r="CCE2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="CCF2" t="n">
         <v>0.21</v>
@@ -28062,7 +28067,7 @@
         <v>0.24</v>
       </c>
       <c r="CEU2" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="CEV2" t="n">
         <v>0.4</v>
@@ -28317,7 +28322,7 @@
         <v>0.31</v>
       </c>
       <c r="CIB2" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="CIC2" t="n">
         <v>0.2</v>
@@ -28368,7 +28373,7 @@
         <v>0.4</v>
       </c>
       <c r="CIS2" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="CIT2" t="n">
         <v>0.26</v>
@@ -28503,7 +28508,7 @@
         <v>0.12</v>
       </c>
       <c r="CKL2" t="n">
-        <v>22.81000000000001</v>
+        <v>22.82000000000001</v>
       </c>
       <c r="CKM2" t="n">
         <v>0.31</v>
@@ -28560,7 +28565,7 @@
         <v>0.66</v>
       </c>
       <c r="CLE2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="CLF2" t="n">
         <v>0.12</v>
@@ -28656,7 +28661,7 @@
         <v>0.27</v>
       </c>
       <c r="CMK2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="CML2" t="n">
         <v>0.1</v>
@@ -28671,7 +28676,7 @@
         <v>0.21</v>
       </c>
       <c r="CMP2" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="CMQ2" t="n">
         <v>7.830000000000001</v>
@@ -28683,7 +28688,7 @@
         <v>0.14</v>
       </c>
       <c r="CMT2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="CMU2" t="n">
         <v>0.43</v>
@@ -29082,7 +29087,7 @@
         <v>0.28</v>
       </c>
       <c r="CRW2" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="CRX2" t="n">
         <v>0.12</v>
@@ -29445,7 +29450,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="CWN2" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="CWO2" t="n">
         <v>0.12</v>
@@ -29478,7 +29483,7 @@
         <v>0.12</v>
       </c>
       <c r="CWY2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="CWZ2" t="n">
         <v>1.07</v>
@@ -29550,7 +29555,7 @@
         <v>0.1</v>
       </c>
       <c r="CXW2" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="CXX2" t="n">
         <v>0.1</v>
@@ -29577,10 +29582,10 @@
         <v>0.37</v>
       </c>
       <c r="CYF2" t="n">
-        <v>4.009999999999999</v>
+        <v>4.039999999999999</v>
       </c>
       <c r="CYG2" t="n">
-        <v>6.889999999999999</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="CYH2" t="n">
         <v>0.26</v>
@@ -29592,7 +29597,7 @@
         <v>0.28</v>
       </c>
       <c r="CYK2" t="n">
-        <v>3.95</v>
+        <v>3.98</v>
       </c>
       <c r="CYL2" t="n">
         <v>0.19</v>
@@ -30039,7 +30044,7 @@
         <v>0.17</v>
       </c>
       <c r="DED2" t="n">
-        <v>7.610000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="DEE2" t="n">
         <v>0.13</v>
@@ -30105,7 +30110,7 @@
         <v>0.14</v>
       </c>
       <c r="DEZ2" t="n">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="DFA2" t="n">
         <v>0.23</v>
@@ -30150,7 +30155,7 @@
         <v>0.14</v>
       </c>
       <c r="DFO2" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="DFP2" t="n">
         <v>0.13</v>
@@ -30213,7 +30218,7 @@
         <v>0.16</v>
       </c>
       <c r="DGJ2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="DGK2" t="n">
         <v>0.15</v>
@@ -30573,7 +30578,7 @@
         <v>0.12</v>
       </c>
       <c r="DKZ2" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DLA2" t="n">
         <v>0.12</v>
@@ -30582,7 +30587,7 @@
         <v>0.12</v>
       </c>
       <c r="DLC2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="DLD2" t="n">
         <v>0.26</v>
@@ -30639,28 +30644,28 @@
         <v>0.13</v>
       </c>
       <c r="DLV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="DLW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="DLX2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="DLY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="DLZ2" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="DMA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="DMB2" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="DMC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="DMD2" t="n">
         <v>0.1</v>
@@ -30873,7 +30878,7 @@
         <v>0.11</v>
       </c>
       <c r="DOV2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="DOW2" t="n">
         <v>0.13</v>
@@ -31116,7 +31121,7 @@
         <v>0.38</v>
       </c>
       <c r="DRY2" t="n">
-        <v>5.750000000000001</v>
+        <v>5.760000000000001</v>
       </c>
       <c r="DRZ2" t="n">
         <v>0.14</v>
@@ -31257,7 +31262,7 @@
         <v>0.92</v>
       </c>
       <c r="DTT2" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="DTU2" t="n">
         <v>0.24</v>
@@ -31728,7 +31733,7 @@
         <v>2.379999999999999</v>
       </c>
       <c r="DZU2" t="n">
-        <v>4.91</v>
+        <v>4.930000000000001</v>
       </c>
       <c r="DZV2" t="n">
         <v>0.11</v>
@@ -31767,7 +31772,7 @@
         <v>0.29</v>
       </c>
       <c r="EAH2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="EAI2" t="n">
         <v>0.66</v>
@@ -31872,7 +31877,7 @@
         <v>0.1</v>
       </c>
       <c r="EBQ2" t="n">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="EBR2" t="n">
         <v>0.1</v>
@@ -31896,7 +31901,7 @@
         <v>0.14</v>
       </c>
       <c r="EBY2" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="EBZ2" t="n">
         <v>0.14</v>
@@ -32016,7 +32021,7 @@
         <v>0.14</v>
       </c>
       <c r="EDM2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="EDN2" t="n">
         <v>0.15</v>
@@ -32187,7 +32192,7 @@
         <v>0.14</v>
       </c>
       <c r="EFR2" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="EFS2" t="n">
         <v>0.16</v>
@@ -32232,7 +32237,7 @@
         <v>0.1</v>
       </c>
       <c r="EGG2" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="EGH2" t="n">
         <v>0.1</v>
@@ -32301,7 +32306,7 @@
         <v>0.61</v>
       </c>
       <c r="EHD2" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="EHE2" t="n">
         <v>0.28</v>
@@ -32346,28 +32351,28 @@
         <v>0.17</v>
       </c>
       <c r="EHS2" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="EHT2" t="n">
+        <v>8.670000000000002</v>
+      </c>
+      <c r="EHU2" t="n">
         <v>0.26</v>
       </c>
-      <c r="EHU2" t="n">
+      <c r="EHV2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EHV2" t="n">
+      <c r="EHW2" t="n">
         <v>0.5599999999999999</v>
       </c>
-      <c r="EHW2" t="n">
+      <c r="EHX2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EHX2" t="n">
+      <c r="EHY2" t="n">
         <v>0.31</v>
       </c>
-      <c r="EHY2" t="n">
+      <c r="EHZ2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="EHZ2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EIA2" t="n">
         <v>0.12</v>
@@ -32376,52 +32381,52 @@
         <v>0.12</v>
       </c>
       <c r="EIC2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EID2" t="n">
         <v>0.53</v>
       </c>
-      <c r="EID2" t="n">
+      <c r="EIE2" t="n">
         <v>0.43</v>
       </c>
-      <c r="EIE2" t="n">
+      <c r="EIF2" t="n">
         <v>0.26</v>
       </c>
-      <c r="EIF2" t="n">
+      <c r="EIG2" t="n">
         <v>0.1</v>
       </c>
-      <c r="EIG2" t="n">
+      <c r="EIH2" t="n">
         <v>0.21</v>
-      </c>
-      <c r="EIH2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EII2" t="n">
         <v>0.1</v>
       </c>
       <c r="EIJ2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EIK2" t="n">
         <v>0.41</v>
       </c>
-      <c r="EIK2" t="n">
+      <c r="EIL2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EIL2" t="n">
+      <c r="EIM2" t="n">
         <v>0.41</v>
       </c>
-      <c r="EIM2" t="n">
+      <c r="EIN2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EIN2" t="n">
+      <c r="EIO2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EIO2" t="n">
+      <c r="EIP2" t="n">
         <v>0.8700000000000001</v>
-      </c>
-      <c r="EIP2" t="n">
-        <v>0.21</v>
       </c>
       <c r="EIQ2" t="n">
         <v>0.21</v>
       </c>
       <c r="EIR2" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="EIS2" t="n">
         <v>0.13</v>
@@ -32430,49 +32435,49 @@
         <v>0.13</v>
       </c>
       <c r="EIU2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EIV2" t="n">
         <v>0.51</v>
       </c>
-      <c r="EIV2" t="n">
+      <c r="EIW2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EIW2" t="n">
+      <c r="EIX2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EIX2" t="n">
+      <c r="EIY2" t="n">
         <v>0.29</v>
-      </c>
-      <c r="EIY2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EIZ2" t="n">
         <v>0.15</v>
       </c>
       <c r="EJA2" t="n">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="EJB2" t="n">
         <v>0.46</v>
       </c>
       <c r="EJC2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EJD2" t="n">
         <v>0.54</v>
       </c>
-      <c r="EJD2" t="n">
+      <c r="EJE2" t="n">
         <v>0.23</v>
       </c>
-      <c r="EJE2" t="n">
+      <c r="EJF2" t="n">
         <v>0.57</v>
       </c>
-      <c r="EJF2" t="n">
+      <c r="EJG2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EJG2" t="n">
+      <c r="EJH2" t="n">
         <v>0.23</v>
       </c>
-      <c r="EJH2" t="n">
+      <c r="EJI2" t="n">
         <v>0.2</v>
-      </c>
-      <c r="EJI2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EJJ2" t="n">
         <v>0.11</v>
@@ -32481,28 +32486,28 @@
         <v>0.11</v>
       </c>
       <c r="EJL2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EJM2" t="n">
         <v>0.22</v>
       </c>
-      <c r="EJM2" t="n">
+      <c r="EJN2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EJN2" t="n">
+      <c r="EJO2" t="n">
         <v>0.19</v>
-      </c>
-      <c r="EJO2" t="n">
-        <v>0.08</v>
       </c>
       <c r="EJP2" t="n">
         <v>0.08</v>
       </c>
       <c r="EJQ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EJR2" t="n">
         <v>0.19</v>
       </c>
-      <c r="EJR2" t="n">
+      <c r="EJS2" t="n">
         <v>0.08</v>
-      </c>
-      <c r="EJS2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EJT2" t="n">
         <v>0.12</v>
@@ -32541,7 +32546,7 @@
         <v>0.12</v>
       </c>
       <c r="EKF2" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="EKG2" t="n">
         <v>0.09</v>
@@ -32556,19 +32561,19 @@
         <v>0.09</v>
       </c>
       <c r="EKK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EKL2" t="n">
         <v>0.53</v>
       </c>
-      <c r="EKL2" t="n">
+      <c r="EKM2" t="n">
         <v>0.44</v>
       </c>
-      <c r="EKM2" t="n">
+      <c r="EKN2" t="n">
         <v>0.29</v>
       </c>
-      <c r="EKN2" t="n">
+      <c r="EKO2" t="n">
         <v>0.31</v>
-      </c>
-      <c r="EKO2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EKP2" t="n">
         <v>0.15</v>
@@ -32577,100 +32582,100 @@
         <v>0.15</v>
       </c>
       <c r="EKR2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EKS2" t="n">
         <v>0.89</v>
-      </c>
-      <c r="EKS2" t="n">
-        <v>0.16</v>
       </c>
       <c r="EKT2" t="n">
         <v>0.16</v>
       </c>
       <c r="EKU2" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="EKV2" t="n">
         <v>0.14</v>
       </c>
       <c r="EKW2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EKX2" t="n">
         <v>0.24</v>
       </c>
-      <c r="EKX2" t="n">
+      <c r="EKY2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EKY2" t="n">
-        <v>0.17</v>
-      </c>
       <c r="EKZ2" t="n">
-        <v>0.97</v>
+        <v>0.18</v>
       </c>
       <c r="ELA2" t="n">
-        <v>0.17</v>
+        <v>0.98</v>
       </c>
       <c r="ELB2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="ELC2" t="n">
         <v>0.19</v>
       </c>
-      <c r="ELC2" t="n">
+      <c r="ELD2" t="n">
         <v>0.3</v>
-      </c>
-      <c r="ELD2" t="n">
-        <v>0.17</v>
       </c>
       <c r="ELE2" t="n">
         <v>0.17</v>
       </c>
       <c r="ELF2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="ELG2" t="n">
         <v>0.3</v>
       </c>
-      <c r="ELG2" t="n">
+      <c r="ELH2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELH2" t="n">
+      <c r="ELI2" t="n">
         <v>0.3</v>
       </c>
-      <c r="ELI2" t="n">
+      <c r="ELJ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="ELJ2" t="n">
+      <c r="ELK2" t="n">
         <v>0.89</v>
       </c>
-      <c r="ELK2" t="n">
+      <c r="ELL2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ELL2" t="n">
+      <c r="ELM2" t="n">
         <v>0.74</v>
       </c>
-      <c r="ELM2" t="n">
+      <c r="ELN2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELN2" t="n">
+      <c r="ELO2" t="n">
         <v>4.41</v>
       </c>
-      <c r="ELO2" t="n">
+      <c r="ELP2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELP2" t="n">
+      <c r="ELQ2" t="n">
         <v>0.39</v>
       </c>
-      <c r="ELQ2" t="n">
+      <c r="ELR2" t="n">
         <v>0.1</v>
-      </c>
-      <c r="ELR2" t="n">
-        <v>0.19</v>
       </c>
       <c r="ELS2" t="n">
         <v>0.19</v>
       </c>
       <c r="ELT2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="ELU2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELU2" t="n">
+      <c r="ELV2" t="n">
         <v>0.24</v>
       </c>
-      <c r="ELV2" t="n">
+      <c r="ELW2" t="n">
         <v>0.21</v>
-      </c>
-      <c r="ELW2" t="n">
-        <v>0.24</v>
       </c>
       <c r="ELX2" t="n">
         <v>0.24</v>
@@ -32679,112 +32684,112 @@
         <v>0.24</v>
       </c>
       <c r="ELZ2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="EMA2" t="n">
         <v>0.29</v>
       </c>
-      <c r="EMA2" t="n">
+      <c r="EMB2" t="n">
         <v>0.14</v>
-      </c>
-      <c r="EMB2" t="n">
-        <v>0.16</v>
       </c>
       <c r="EMC2" t="n">
         <v>0.16</v>
       </c>
       <c r="EMD2" t="n">
-        <v>1.71</v>
+        <v>0.16</v>
       </c>
       <c r="EME2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="EMF2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EMF2" t="n">
+      <c r="EMG2" t="n">
         <v>0.7000000000000001</v>
       </c>
-      <c r="EMG2" t="n">
+      <c r="EMH2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="EMH2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EMI2" t="n">
         <v>0.1</v>
       </c>
       <c r="EMJ2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EMK2" t="n">
         <v>0.26</v>
       </c>
-      <c r="EMK2" t="n">
+      <c r="EML2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EML2" t="n">
+      <c r="EMM2" t="n">
         <v>0.64</v>
       </c>
-      <c r="EMM2" t="n">
+      <c r="EMN2" t="n">
         <v>0.4</v>
       </c>
-      <c r="EMN2" t="n">
+      <c r="EMO2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EMO2" t="n">
+      <c r="EMP2" t="n">
         <v>0.28</v>
       </c>
-      <c r="EMP2" t="n">
+      <c r="EMQ2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EMQ2" t="n">
+      <c r="EMR2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="EMR2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EMS2" t="n">
         <v>0.11</v>
       </c>
       <c r="EMT2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EMU2" t="n">
         <v>0.27</v>
       </c>
-      <c r="EMU2" t="n">
+      <c r="EMV2" t="n">
         <v>0.19</v>
       </c>
-      <c r="EMV2" t="n">
-        <v>0.12</v>
-      </c>
       <c r="EMW2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="EMX2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EMY2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EMY2" t="n">
+      <c r="EMZ2" t="n">
         <v>0.32</v>
-      </c>
-      <c r="EMZ2" t="n">
-        <v>0.16</v>
       </c>
       <c r="ENA2" t="n">
         <v>0.16</v>
       </c>
       <c r="ENB2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ENC2" t="n">
         <v>1.19</v>
       </c>
-      <c r="ENC2" t="n">
+      <c r="END2" t="n">
         <v>0.21</v>
       </c>
-      <c r="END2" t="n">
+      <c r="ENE2" t="n">
         <v>0.46</v>
       </c>
-      <c r="ENE2" t="n">
+      <c r="ENF2" t="n">
         <v>0.21</v>
       </c>
-      <c r="ENF2" t="n">
+      <c r="ENG2" t="n">
         <v>0.09</v>
       </c>
-      <c r="ENG2" t="n">
+      <c r="ENH2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ENH2" t="n">
+      <c r="ENI2" t="n">
         <v>1.14</v>
-      </c>
-      <c r="ENI2" t="n">
-        <v>0.12</v>
       </c>
       <c r="ENJ2" t="n">
         <v>0.12</v>
@@ -32802,13 +32807,13 @@
         <v>0.12</v>
       </c>
       <c r="ENO2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="ENP2" t="n">
         <v>0.71</v>
       </c>
-      <c r="ENP2" t="n">
+      <c r="ENQ2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="ENQ2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ENR2" t="n">
         <v>0.1</v>
@@ -32823,16 +32828,16 @@
         <v>0.1</v>
       </c>
       <c r="ENV2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ENW2" t="n">
         <v>0.9</v>
       </c>
-      <c r="ENW2" t="n">
+      <c r="ENX2" t="n">
         <v>1.17</v>
       </c>
-      <c r="ENX2" t="n">
+      <c r="ENY2" t="n">
         <v>1.37</v>
-      </c>
-      <c r="ENY2" t="n">
-        <v>0.15</v>
       </c>
       <c r="ENZ2" t="n">
         <v>0.15</v>
@@ -32841,7 +32846,7 @@
         <v>0.15</v>
       </c>
       <c r="EOB2" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="EOC2" t="n">
         <v>0.18</v>
@@ -32850,31 +32855,31 @@
         <v>0.18</v>
       </c>
       <c r="EOE2" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="EOF2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EOG2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EOG2" t="n">
+      <c r="EOH2" t="n">
         <v>0.33</v>
       </c>
-      <c r="EOH2" t="n">
+      <c r="EOI2" t="n">
         <v>0.38</v>
       </c>
-      <c r="EOI2" t="n">
+      <c r="EOJ2" t="n">
         <v>0.44</v>
       </c>
-      <c r="EOJ2" t="n">
+      <c r="EOK2" t="n">
         <v>0.17</v>
-      </c>
-      <c r="EOK2" t="n">
-        <v>0.18</v>
       </c>
       <c r="EOL2" t="n">
         <v>0.18</v>
       </c>
       <c r="EOM2" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="EON2" t="n">
         <v>0.15</v>
@@ -32895,46 +32900,46 @@
         <v>0.15</v>
       </c>
       <c r="EOT2" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="EOU2" t="n">
         <v>0.12</v>
       </c>
       <c r="EOV2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EOW2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EOW2" t="n">
+      <c r="EOX2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EOX2" t="n">
+      <c r="EOY2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="EOY2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EOZ2" t="n">
         <v>0.12</v>
       </c>
       <c r="EPA2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EPB2" t="n">
         <v>0.29</v>
-      </c>
-      <c r="EPB2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EPC2" t="n">
         <v>0.12</v>
       </c>
       <c r="EPD2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EPE2" t="n">
         <v>0.41</v>
-      </c>
-      <c r="EPE2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EPF2" t="n">
         <v>0.12</v>
       </c>
       <c r="EPG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="EPH2" t="n">
         <v>0.13</v>
@@ -32943,94 +32948,94 @@
         <v>0.13</v>
       </c>
       <c r="EPJ2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EPK2" t="n">
         <v>0.35</v>
       </c>
-      <c r="EPK2" t="n">
+      <c r="EPL2" t="n">
         <v>0.45</v>
       </c>
-      <c r="EPL2" t="n">
+      <c r="EPM2" t="n">
         <v>0.84</v>
       </c>
-      <c r="EPM2" t="n">
+      <c r="EPN2" t="n">
         <v>0.18</v>
-      </c>
-      <c r="EPN2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EPO2" t="n">
         <v>0.15</v>
       </c>
       <c r="EPP2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EPQ2" t="n">
         <v>0.79</v>
       </c>
-      <c r="EPQ2" t="n">
+      <c r="EPR2" t="n">
         <v>0.1</v>
       </c>
-      <c r="EPR2" t="n">
+      <c r="EPS2" t="n">
         <v>0.49</v>
-      </c>
-      <c r="EPS2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EPT2" t="n">
         <v>0.1</v>
       </c>
       <c r="EPU2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EPV2" t="n">
         <v>0.25</v>
-      </c>
-      <c r="EPV2" t="n">
-        <v>0.24</v>
       </c>
       <c r="EPW2" t="n">
         <v>0.24</v>
       </c>
       <c r="EPX2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="EPY2" t="n">
         <v>0.47</v>
       </c>
-      <c r="EPY2" t="n">
+      <c r="EPZ2" t="n">
         <v>0.64</v>
       </c>
-      <c r="EPZ2" t="n">
-        <v>0.48</v>
-      </c>
       <c r="EQA2" t="n">
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="EQB2" t="n">
         <v>0.09</v>
       </c>
       <c r="EQC2" t="n">
-        <v>1.07</v>
+        <v>0.09</v>
       </c>
       <c r="EQD2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="EQE2" t="n">
         <v>1.64</v>
       </c>
-      <c r="EQE2" t="n">
+      <c r="EQF2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="EQF2" t="n">
-        <v>0.18</v>
       </c>
       <c r="EQG2" t="n">
         <v>0.18</v>
       </c>
       <c r="EQH2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="EQI2" t="n">
         <v>0.32</v>
       </c>
-      <c r="EQI2" t="n">
+      <c r="EQJ2" t="n">
         <v>0.29</v>
       </c>
-      <c r="EQJ2" t="n">
+      <c r="EQK2" t="n">
         <v>0.74</v>
       </c>
-      <c r="EQK2" t="n">
+      <c r="EQL2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EQL2" t="n">
+      <c r="EQM2" t="n">
         <v>0.19</v>
-      </c>
-      <c r="EQM2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EQN2" t="n">
         <v>0.11</v>
@@ -33039,55 +33044,55 @@
         <v>0.11</v>
       </c>
       <c r="EQP2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EQQ2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EQQ2" t="n">
+      <c r="EQR2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="EQR2" t="n">
+      <c r="EQS2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EQS2" t="n">
+      <c r="EQT2" t="n">
         <v>0.23</v>
       </c>
-      <c r="EQT2" t="n">
-        <v>0.54</v>
-      </c>
       <c r="EQU2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="EQV2" t="n">
         <v>1.56</v>
       </c>
-      <c r="EQV2" t="n">
+      <c r="EQW2" t="n">
         <v>0.47</v>
       </c>
-      <c r="EQW2" t="n">
-        <v>1.59</v>
-      </c>
       <c r="EQX2" t="n">
-        <v>0.27</v>
+        <v>1.64</v>
       </c>
       <c r="EQY2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="EQZ2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EQZ2" t="n">
+      <c r="ERA2" t="n">
         <v>0.33</v>
-      </c>
-      <c r="ERA2" t="n">
-        <v>0.11</v>
       </c>
       <c r="ERB2" t="n">
         <v>0.11</v>
       </c>
       <c r="ERC2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="ERD2" t="n">
         <v>0.37</v>
       </c>
-      <c r="ERD2" t="n">
+      <c r="ERE2" t="n">
         <v>0.43</v>
       </c>
-      <c r="ERE2" t="n">
+      <c r="ERF2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="ERF2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ERG2" t="n">
         <v>0.1</v>
@@ -33096,7 +33101,7 @@
         <v>0.1</v>
       </c>
       <c r="ERI2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ERJ2" t="n">
         <v>0.09</v>
@@ -33114,43 +33119,43 @@
         <v>0.09</v>
       </c>
       <c r="ERO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ERP2" t="n">
         <v>0.17</v>
       </c>
-      <c r="ERP2" t="n">
+      <c r="ERQ2" t="n">
         <v>0.27</v>
       </c>
-      <c r="ERQ2" t="n">
+      <c r="ERR2" t="n">
         <v>0.09</v>
-      </c>
-      <c r="ERR2" t="n">
-        <v>0.12</v>
       </c>
       <c r="ERS2" t="n">
         <v>0.12</v>
       </c>
       <c r="ERT2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="ERU2" t="n">
         <v>0.55</v>
       </c>
-      <c r="ERU2" t="n">
+      <c r="ERV2" t="n">
         <v>0.18</v>
       </c>
-      <c r="ERV2" t="n">
+      <c r="ERW2" t="n">
         <v>0.37</v>
       </c>
-      <c r="ERW2" t="n">
+      <c r="ERX2" t="n">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="ERX2" t="n">
-        <v>0.17</v>
       </c>
       <c r="ERY2" t="n">
         <v>0.17</v>
       </c>
       <c r="ERZ2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="ESA2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="ESA2" t="n">
-        <v>0.13</v>
       </c>
       <c r="ESB2" t="n">
         <v>0.13</v>
@@ -33159,43 +33164,43 @@
         <v>0.13</v>
       </c>
       <c r="ESD2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ESE2" t="n">
         <v>0.25</v>
       </c>
-      <c r="ESE2" t="n">
+      <c r="ESF2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ESF2" t="n">
+      <c r="ESG2" t="n">
         <v>0.25</v>
       </c>
-      <c r="ESG2" t="n">
+      <c r="ESH2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="ESH2" t="n">
-        <v>0.25</v>
       </c>
       <c r="ESI2" t="n">
         <v>0.25</v>
       </c>
       <c r="ESJ2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="ESK2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ESK2" t="n">
+      <c r="ESL2" t="n">
         <v>0.51</v>
       </c>
-      <c r="ESL2" t="n">
+      <c r="ESM2" t="n">
         <v>0.17</v>
       </c>
-      <c r="ESM2" t="n">
+      <c r="ESN2" t="n">
         <v>0.63</v>
       </c>
-      <c r="ESN2" t="n">
+      <c r="ESO2" t="n">
         <v>0.5</v>
       </c>
-      <c r="ESO2" t="n">
+      <c r="ESP2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="ESP2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ESQ2" t="n">
         <v>0.1</v>
@@ -33207,34 +33212,34 @@
         <v>0.1</v>
       </c>
       <c r="EST2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ESU2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ESU2" t="n">
+      <c r="ESV2" t="n">
         <v>0.5</v>
       </c>
-      <c r="ESV2" t="n">
+      <c r="ESW2" t="n">
         <v>0.6</v>
       </c>
-      <c r="ESW2" t="n">
+      <c r="ESX2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ESX2" t="n">
+      <c r="ESY2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ESY2" t="n">
+      <c r="ESZ2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ESZ2" t="n">
+      <c r="ETA2" t="n">
         <v>0.11</v>
       </c>
-      <c r="ETA2" t="n">
+      <c r="ETB2" t="n">
         <v>0.21</v>
       </c>
-      <c r="ETB2" t="n">
-        <v>0.2</v>
-      </c>
       <c r="ETC2" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="ETD2" t="n">
         <v>0.11</v>
@@ -33249,10 +33254,10 @@
         <v>0.11</v>
       </c>
       <c r="ETH2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="ETI2" t="n">
         <v>0.45</v>
-      </c>
-      <c r="ETI2" t="n">
-        <v>0.15</v>
       </c>
       <c r="ETJ2" t="n">
         <v>0.15</v>
@@ -33264,19 +33269,19 @@
         <v>0.15</v>
       </c>
       <c r="ETM2" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="ETN2" t="n">
         <v>0.09</v>
       </c>
       <c r="ETO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ETP2" t="n">
         <v>0.17</v>
       </c>
-      <c r="ETP2" t="n">
+      <c r="ETQ2" t="n">
         <v>0.09</v>
-      </c>
-      <c r="ETQ2" t="n">
-        <v>0.2</v>
       </c>
       <c r="ETR2" t="n">
         <v>0.2</v>
@@ -33297,73 +33302,73 @@
         <v>0.2</v>
       </c>
       <c r="ETX2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ETY2" t="n">
         <v>0.28</v>
       </c>
-      <c r="ETY2" t="n">
+      <c r="ETZ2" t="n">
         <v>0.42</v>
       </c>
-      <c r="ETZ2" t="n">
+      <c r="EUA2" t="n">
         <v>0.21</v>
       </c>
-      <c r="EUA2" t="n">
+      <c r="EUB2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EUB2" t="n">
-        <v>0.18</v>
-      </c>
       <c r="EUC2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="EUD2" t="n">
         <v>0.21</v>
       </c>
-      <c r="EUD2" t="n">
+      <c r="EUE2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EUE2" t="n">
+      <c r="EUF2" t="n">
         <v>0.21</v>
       </c>
-      <c r="EUF2" t="n">
+      <c r="EUG2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="EUG2" t="n">
-        <v>0.13</v>
       </c>
       <c r="EUH2" t="n">
         <v>0.13</v>
       </c>
       <c r="EUI2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EUJ2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EUJ2" t="n">
+      <c r="EUK2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EUK2" t="n">
-        <v>0.41</v>
-      </c>
       <c r="EUL2" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="EUM2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EUN2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EUO2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EUP2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EUP2" t="n">
+      <c r="EUQ2" t="n">
         <v>0.57</v>
       </c>
-      <c r="EUQ2" t="n">
+      <c r="EUR2" t="n">
         <v>0.5700000000000001</v>
       </c>
-      <c r="EUR2" t="n">
+      <c r="EUS2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EUS2" t="n">
+      <c r="EUT2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="EUT2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EUU2" t="n">
         <v>0.12</v>
@@ -33375,10 +33380,10 @@
         <v>0.12</v>
       </c>
       <c r="EUX2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EUY2" t="n">
         <v>0.39</v>
-      </c>
-      <c r="EUY2" t="n">
-        <v>0.13</v>
       </c>
       <c r="EUZ2" t="n">
         <v>0.13</v>
@@ -33387,10 +33392,10 @@
         <v>0.13</v>
       </c>
       <c r="EVB2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EVC2" t="n">
         <v>0.25</v>
-      </c>
-      <c r="EVC2" t="n">
-        <v>0.13</v>
       </c>
       <c r="EVD2" t="n">
         <v>0.13</v>
@@ -33402,34 +33407,34 @@
         <v>0.13</v>
       </c>
       <c r="EVG2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EVH2" t="n">
         <v>0.64</v>
-      </c>
-      <c r="EVH2" t="n">
-        <v>0.19</v>
       </c>
       <c r="EVI2" t="n">
         <v>0.19</v>
       </c>
       <c r="EVJ2" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="EVK2" t="n">
         <v>0.17</v>
       </c>
       <c r="EVL2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="EVM2" t="n">
         <v>0.35</v>
       </c>
-      <c r="EVM2" t="n">
+      <c r="EVN2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EVN2" t="n">
-        <v>0.09</v>
-      </c>
       <c r="EVO2" t="n">
-        <v>0.66</v>
+        <v>0.11</v>
       </c>
       <c r="EVP2" t="n">
-        <v>0.13</v>
+        <v>0.72</v>
       </c>
       <c r="EVQ2" t="n">
         <v>0.13</v>
@@ -33438,55 +33443,55 @@
         <v>0.13</v>
       </c>
       <c r="EVS2" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="EVT2" t="n">
         <v>0.19</v>
       </c>
       <c r="EVU2" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="EVV2" t="n">
         <v>0.16</v>
       </c>
       <c r="EVW2" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="EVX2" t="n">
         <v>0.3</v>
       </c>
       <c r="EVY2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EVZ2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EVZ2" t="n">
+      <c r="EWA2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EWA2" t="n">
+      <c r="EWB2" t="n">
         <v>0.7100000000000001</v>
       </c>
-      <c r="EWB2" t="n">
+      <c r="EWC2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EWC2" t="n">
+      <c r="EWD2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EWD2" t="n">
+      <c r="EWE2" t="n">
         <v>0.35</v>
-      </c>
-      <c r="EWE2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EWF2" t="n">
         <v>0.12</v>
       </c>
       <c r="EWG2" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="EWH2" t="n">
         <v>0.17</v>
       </c>
       <c r="EWI2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="EWJ2" t="n">
         <v>0.19</v>
@@ -33495,7 +33500,7 @@
         <v>0.19</v>
       </c>
       <c r="EWL2" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="EWM2" t="n">
         <v>0.13</v>
@@ -33504,61 +33509,61 @@
         <v>0.13</v>
       </c>
       <c r="EWO2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EWP2" t="n">
         <v>0.27</v>
       </c>
-      <c r="EWP2" t="n">
+      <c r="EWQ2" t="n">
         <v>0.78</v>
       </c>
-      <c r="EWQ2" t="n">
-        <v>0.29</v>
-      </c>
       <c r="EWR2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EWS2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="EWT2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EWS2" t="n">
+      <c r="EWU2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="EWV2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EWT2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="EWU2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="EWV2" t="n">
+      <c r="EWW2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EWW2" t="n">
+      <c r="EWX2" t="n">
         <v>0.71</v>
       </c>
-      <c r="EWX2" t="n">
+      <c r="EWY2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EWY2" t="n">
+      <c r="EWZ2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="EWZ2" t="n">
+      <c r="EXA2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EXA2" t="n">
+      <c r="EXB2" t="n">
         <v>0.52</v>
-      </c>
-      <c r="EXB2" t="n">
-        <v>0.13</v>
       </c>
       <c r="EXC2" t="n">
         <v>0.13</v>
       </c>
       <c r="EXD2" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="EXE2" t="n">
         <v>0.11</v>
       </c>
       <c r="EXF2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EXG2" t="n">
         <v>0.88</v>
-      </c>
-      <c r="EXG2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EXH2" t="n">
         <v>0.12</v>
@@ -33567,19 +33572,19 @@
         <v>0.12</v>
       </c>
       <c r="EXJ2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EXK2" t="n">
         <v>0.26</v>
       </c>
-      <c r="EXK2" t="n">
+      <c r="EXL2" t="n">
         <v>0.17</v>
       </c>
-      <c r="EXL2" t="n">
+      <c r="EXM2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="EXN2" t="n">
         <v>0.35</v>
-      </c>
-      <c r="EXM2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EXN2" t="n">
-        <v>0.17</v>
       </c>
       <c r="EXO2" t="n">
         <v>0.17</v>
@@ -33594,28 +33599,28 @@
         <v>0.17</v>
       </c>
       <c r="EXS2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="EXT2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="EXT2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EXU2" t="n">
         <v>0.12</v>
       </c>
       <c r="EXV2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EXW2" t="n">
         <v>0.35</v>
-      </c>
-      <c r="EXW2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EXX2" t="n">
         <v>0.12</v>
       </c>
       <c r="EXY2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EXZ2" t="n">
         <v>0.23</v>
-      </c>
-      <c r="EXZ2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EYA2" t="n">
         <v>0.12</v>
@@ -33624,16 +33629,16 @@
         <v>0.12</v>
       </c>
       <c r="EYC2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EYD2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="EYD2" t="n">
-        <v>0.14</v>
       </c>
       <c r="EYE2" t="n">
         <v>0.14</v>
       </c>
       <c r="EYF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="EYG2" t="n">
         <v>0.07000000000000001</v>
@@ -33660,61 +33665,61 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="EYO2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EYP2" t="n">
         <v>0.17</v>
       </c>
-      <c r="EYP2" t="n">
+      <c r="EYQ2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EYQ2" t="n">
+      <c r="EYR2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="EYR2" t="n">
+      <c r="EYS2" t="n">
         <v>0.33</v>
       </c>
-      <c r="EYS2" t="n">
+      <c r="EYT2" t="n">
         <v>0.17</v>
-      </c>
-      <c r="EYT2" t="n">
-        <v>0.14</v>
       </c>
       <c r="EYU2" t="n">
         <v>0.14</v>
       </c>
       <c r="EYV2" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="EYW2" t="n">
         <v>0.21</v>
       </c>
       <c r="EYX2" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="EYY2" t="n">
         <v>0.31</v>
       </c>
       <c r="EYZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="EZA2" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="EZB2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EZC2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EZD2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EZE2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EZC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EZD2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="EZE2" t="n">
-        <v>0.23</v>
-      </c>
       <c r="EZF2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="EZG2" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="EZH2" t="n">
         <v>0.12</v>
@@ -33729,13 +33734,13 @@
         <v>0.12</v>
       </c>
       <c r="EZL2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="EZM2" t="n">
         <v>0.14</v>
       </c>
       <c r="EZN2" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="EZO2" t="n">
         <v>0.11</v>
@@ -33774,25 +33779,25 @@
         <v>0.11</v>
       </c>
       <c r="FAA2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FAB2" t="n">
         <v>0.1</v>
-      </c>
-      <c r="FAB2" t="n">
-        <v>0.18</v>
       </c>
       <c r="FAC2" t="n">
         <v>0.18</v>
       </c>
       <c r="FAD2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="FAE2" t="n">
         <v>0.25</v>
       </c>
-      <c r="FAE2" t="n">
+      <c r="FAF2" t="n">
         <v>0.18</v>
       </c>
-      <c r="FAF2" t="n">
+      <c r="FAG2" t="n">
         <v>0.22</v>
-      </c>
-      <c r="FAG2" t="n">
-        <v>0.13</v>
       </c>
       <c r="FAH2" t="n">
         <v>0.13</v>
@@ -33804,19 +33809,19 @@
         <v>0.13</v>
       </c>
       <c r="FAK2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="FAL2" t="n">
         <v>0.15</v>
       </c>
       <c r="FAM2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="FAN2" t="n">
         <v>0.31</v>
       </c>
-      <c r="FAN2" t="n">
+      <c r="FAO2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="FAO2" t="n">
-        <v>0.17</v>
       </c>
       <c r="FAP2" t="n">
         <v>0.17</v>
@@ -33831,40 +33836,40 @@
         <v>0.17</v>
       </c>
       <c r="FAT2" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="FAU2" t="n">
         <v>0.15</v>
       </c>
       <c r="FAV2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="FAW2" t="n">
         <v>0.1</v>
       </c>
-      <c r="FAW2" t="n">
+      <c r="FAX2" t="n">
         <v>0.2</v>
-      </c>
-      <c r="FAX2" t="n">
-        <v>0.1</v>
       </c>
       <c r="FAY2" t="n">
         <v>0.1</v>
       </c>
       <c r="FAZ2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="FBA2" t="n">
         <v>0.2</v>
-      </c>
-      <c r="FBA2" t="n">
-        <v>0.1</v>
       </c>
       <c r="FBB2" t="n">
         <v>0.1</v>
       </c>
       <c r="FBC2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="FBD2" t="n">
         <v>0.41</v>
       </c>
-      <c r="FBD2" t="n">
+      <c r="FBE2" t="n">
         <v>0.2</v>
-      </c>
-      <c r="FBE2" t="n">
-        <v>0.1</v>
       </c>
       <c r="FBF2" t="n">
         <v>0.1</v>
@@ -33882,10 +33887,10 @@
         <v>0.1</v>
       </c>
       <c r="FBK2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="FBL2" t="n">
         <v>0.2</v>
-      </c>
-      <c r="FBL2" t="n">
-        <v>0.12</v>
       </c>
       <c r="FBM2" t="n">
         <v>0.12</v>
@@ -33897,34 +33902,34 @@
         <v>0.12</v>
       </c>
       <c r="FBP2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="FBQ2" t="n">
         <v>0.18</v>
       </c>
-      <c r="FBQ2" t="n">
-        <v>0.14</v>
-      </c>
       <c r="FBR2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="FBS2" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="FBT2" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="FBU2" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="FBV2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="FBW2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="FBX2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="FBY2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="FBW2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="FBX2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="FBY2" t="n">
-        <v>0.08</v>
       </c>
       <c r="FBZ2" t="n">
         <v>0.08</v>
@@ -33933,40 +33938,40 @@
         <v>0.08</v>
       </c>
       <c r="FCB2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FCC2" t="n">
         <v>0.13</v>
       </c>
-      <c r="FCC2" t="n">
+      <c r="FCD2" t="n">
         <v>0.08</v>
       </c>
-      <c r="FCD2" t="n">
+      <c r="FCE2" t="n">
         <v>0.17</v>
       </c>
-      <c r="FCE2" t="n">
+      <c r="FCF2" t="n">
         <v>0.08</v>
       </c>
-      <c r="FCF2" t="n">
+      <c r="FCG2" t="n">
         <v>0.17</v>
-      </c>
-      <c r="FCG2" t="n">
-        <v>0.08</v>
       </c>
       <c r="FCH2" t="n">
         <v>0.08</v>
       </c>
       <c r="FCI2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FCJ2" t="n">
         <v>0.42</v>
-      </c>
-      <c r="FCJ2" t="n">
-        <v>0.08</v>
       </c>
       <c r="FCK2" t="n">
         <v>0.08</v>
       </c>
       <c r="FCL2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FCM2" t="n">
         <v>0.17</v>
-      </c>
-      <c r="FCM2" t="n">
-        <v>0.08</v>
       </c>
       <c r="FCN2" t="n">
         <v>0.08</v>
@@ -33978,7 +33983,7 @@
         <v>0.08</v>
       </c>
       <c r="FCQ2" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="FCR2" t="n">
         <v>0.16</v>
@@ -33999,7 +34004,7 @@
         <v>0.16</v>
       </c>
       <c r="FCX2" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="FCY2" t="n">
         <v>0.06</v>
@@ -34017,25 +34022,25 @@
         <v>0.06</v>
       </c>
       <c r="FDD2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="FDE2" t="n">
         <v>0.09</v>
-      </c>
-      <c r="FDE2" t="n">
-        <v>0.17</v>
       </c>
       <c r="FDF2" t="n">
         <v>0.17</v>
       </c>
       <c r="FDG2" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="FDH2" t="n">
         <v>0.09</v>
       </c>
       <c r="FDI2" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="FDJ2" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="FDK2" t="n">
         <v>0.09</v>
@@ -34044,7 +34049,7 @@
         <v>0.09</v>
       </c>
       <c r="FDM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="FDN2" t="n">
         <v>0.07000000000000001</v>
@@ -34053,10 +34058,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="FDP2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="FDQ2" t="n">
         <v>0.65</v>
-      </c>
-      <c r="FDQ2" t="n">
-        <v>0.14</v>
       </c>
       <c r="FDR2" t="n">
         <v>0.14</v>
@@ -34065,16 +34070,16 @@
         <v>0.14</v>
       </c>
       <c r="FDT2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="FDU2" t="n">
         <v>0.09</v>
       </c>
-      <c r="FDU2" t="n">
+      <c r="FDV2" t="n">
         <v>0.44</v>
       </c>
-      <c r="FDV2" t="n">
+      <c r="FDW2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="FDW2" t="n">
-        <v>0.09</v>
       </c>
       <c r="FDX2" t="n">
         <v>0.09</v>
@@ -34083,13 +34088,13 @@
         <v>0.09</v>
       </c>
       <c r="FDZ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="FEA2" t="n">
         <v>0.18</v>
       </c>
-      <c r="FEA2" t="n">
+      <c r="FEB2" t="n">
         <v>0.09</v>
-      </c>
-      <c r="FEB2" t="n">
-        <v>0.2</v>
       </c>
       <c r="FEC2" t="n">
         <v>0.2</v>
@@ -34107,52 +34112,52 @@
         <v>0.2</v>
       </c>
       <c r="FEH2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="FEI2" t="n">
         <v>0.27</v>
       </c>
-      <c r="FEI2" t="n">
+      <c r="FEJ2" t="n">
         <v>0.13</v>
       </c>
-      <c r="FEJ2" t="n">
+      <c r="FEK2" t="n">
         <v>0.28</v>
-      </c>
-      <c r="FEK2" t="n">
-        <v>0.13</v>
       </c>
       <c r="FEL2" t="n">
         <v>0.13</v>
       </c>
       <c r="FEM2" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="FEN2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="FEO2" t="n">
         <v>0.1</v>
       </c>
       <c r="FEP2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="FEQ2" t="n">
         <v>0.2</v>
       </c>
-      <c r="FEQ2" t="n">
+      <c r="FER2" t="n">
         <v>0.1</v>
       </c>
-      <c r="FER2" t="n">
+      <c r="FES2" t="n">
         <v>0.85</v>
-      </c>
-      <c r="FES2" t="n">
-        <v>0.06</v>
       </c>
       <c r="FET2" t="n">
         <v>0.06</v>
       </c>
       <c r="FEU2" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="FEV2" t="n">
         <v>0.16</v>
       </c>
       <c r="FEW2" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="FEX2" t="n">
         <v>0.13</v>
@@ -34164,24 +34169,27 @@
         <v>0.13</v>
       </c>
       <c r="FFA2" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="FFB2" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="FFC2" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="FFD2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="FFE2" t="n">
         <v>0.12</v>
       </c>
       <c r="FFF2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="FFG2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="FFH2" t="n">
         <v>0.44</v>
       </c>
     </row>
